--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\r-basic\00.Notas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\python-intensivo-zero2hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FD1A78-B5D1-48E8-BF61-817B93A45C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD866550-104B-4065-A6B4-6973BDA746B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -180,12 +180,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="J34" authorId="0" shapeId="0" xr:uid="{35A9D5C7-A149-4427-95F8-04ED37D6CFA1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+06-Functions scripts</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Operaciones</t>
   </si>
@@ -247,9 +271,6 @@
     <t>Variable y funciones</t>
   </si>
   <si>
-    <t>cuadrado &lt;- function(x){x^2}</t>
-  </si>
-  <si>
     <t>Trabajando con R</t>
   </si>
   <si>
@@ -491,6 +512,157 @@
   </si>
   <si>
     <t>gamma</t>
+  </si>
+  <si>
+    <r>
+      <t>cuadrado &lt;-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>){</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x^2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Funciones con Python</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Si la función debe devolver un "objeto" debe llevar un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se puede abortar la ejecución de un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se puede devolver varios valores con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valor1,valor2,…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -909,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
-  <dimension ref="B2:P33"/>
+  <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +1092,7 @@
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -929,7 +1101,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -943,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -951,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -959,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -967,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -975,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -983,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -991,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -999,7 +1171,7 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -1007,7 +1179,7 @@
         <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -1015,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
@@ -1023,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
@@ -1031,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -1039,7 +1211,7 @@
         <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -1047,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -1055,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -1063,7 +1235,7 @@
         <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -1071,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -1079,7 +1251,7 @@
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -1087,7 +1259,7 @@
         <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -1095,55 +1267,75 @@
         <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" t="s">
-        <v>51</v>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\python-intensivo-zero2hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD866550-104B-4065-A6B4-6973BDA746B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E555DEBC-55CA-4AB9-80BB-6AA9D8C59853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -204,12 +204,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="K39" authorId="0" shapeId="0" xr:uid="{2D73F51A-FE9F-4BA5-8949-3FAA355C9086}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+def sum(*args):
+    return sum(args)
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Operaciones</t>
   </si>
@@ -663,6 +689,50 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Argumentos variables y lambdas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uso del " </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para no. de argumentos variables</t>
+    </r>
+  </si>
+  <si>
+    <t>Uso de " += "</t>
+  </si>
+  <si>
+    <t>Funciones lambda</t>
+  </si>
+  <si>
+    <t>doble = lambda x: x*2</t>
+  </si>
+  <si>
+    <t>list( filter( lambda, datos ) )</t>
+  </si>
+  <si>
+    <t>list( map( lambda, datos ) )</t>
   </si>
 </sst>
 </file>
@@ -1081,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
-  <dimension ref="B2:P37"/>
+  <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,29 +1383,64 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:12" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:12" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:12" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:12" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\python-intensivo-zero2hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E555DEBC-55CA-4AB9-80BB-6AA9D8C59853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A11135-86C7-4D02-8CC5-BB99C851E498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -41,6 +41,129 @@
     <author>Carlos Daniel</author>
   </authors>
   <commentList>
+    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{FFD5BE9C-0C5D-434F-9629-7F892569ACBC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+carpeta "tema3"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S9" authorId="0" shapeId="0" xr:uid="{B5A1AB24-7322-49BC-868F-FD11623AAF1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+lista[0:2] 
+el anterior codigo no incluye la posición 2 (el tercer elemento)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S10" authorId="0" shapeId="0" xr:uid="{9382C297-466D-45E6-92A2-78FDD8D26116}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Agrega el elemento "x" al final de la lista
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S11" authorId="0" shapeId="0" xr:uid="{1C4F76E7-1546-4151-A887-352F6AEB4688}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Elimina el elemento "x" de la lista, la primera ocurrencia del valor "x"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S14" authorId="0" shapeId="0" xr:uid="{F2ADE204-B0E2-4329-B53B-8D221577BC97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+L[::]: todos los elementos
+L[1::2]: elementos pares desde la posición 1, </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B16" authorId="0" shapeId="0" xr:uid="{88DFA9BF-36B7-4E83-B103-D94FB56CBCA7}">
       <text>
         <r>
@@ -177,6 +300,30 @@
           </rPr>
           <t xml:space="preserve">
 Parte entera de x, elimita la parte decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S25" authorId="0" shapeId="0" xr:uid="{8A490425-0A4B-438C-B391-4E3146D3CF96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+print("Estos son los números primos: %s" %primos)</t>
         </r>
       </text>
     </comment>
@@ -235,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Operaciones</t>
   </si>
@@ -733,13 +880,216 @@
   </si>
   <si>
     <t>list( map( lambda, datos ) )</t>
+  </si>
+  <si>
+    <t>Estructuras de datos en Python</t>
+  </si>
+  <si>
+    <t>Listas</t>
+  </si>
+  <si>
+    <t>- Crear una lista con valores repetidos usando "*"</t>
+  </si>
+  <si>
+    <t>- Empiezan en cero</t>
+  </si>
+  <si>
+    <t>Actualización de valores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder a multiples valores de una lista </t>
+  </si>
+  <si>
+    <t>.remove(x)</t>
+  </si>
+  <si>
+    <t>.append(x)</t>
+  </si>
+  <si>
+    <t>Con tabulador se pueden ver las demás</t>
+  </si>
+  <si>
+    <t>.reverse()</t>
+  </si>
+  <si>
+    <t>.index(elemento)</t>
+  </si>
+  <si>
+    <t>Uso de :: en listas</t>
+  </si>
+  <si>
+    <t>Bucles</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>Tuplas</t>
+  </si>
+  <si>
+    <t>- No puede modificarse</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Para acceder a un elemento es igual que una </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lista</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Las listas y las tuplas se pueden convertir con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tuple()</t>
+    </r>
+  </si>
+  <si>
+    <t>Diccionario</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Los valores almacenados no se indexan por posición, sino por </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>claves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (keys)</t>
+    </r>
+  </si>
+  <si>
+    <t>Uso del "%s"</t>
+  </si>
+  <si>
+    <t>(para arrays o strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso del %d </t>
+  </si>
+  <si>
+    <t>Uso de %f</t>
+  </si>
+  <si>
+    <t>(para un numero)</t>
+  </si>
+  <si>
+    <t>.keys()</t>
+  </si>
+  <si>
+    <t>.values()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>del</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para eliminar elementos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dicc={ key1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> valor1, key2 : valor2 }</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +1117,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -826,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,6 +1200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,16 +1515,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
-  <dimension ref="B2:P44"/>
+  <dimension ref="B2:X44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M12" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,136 +1543,196 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="3"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="L7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S8" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>69</v>
+      </c>
+      <c r="U11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="K12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="L13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="K14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="K15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="K16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="J17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="S17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="K18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="L19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="S19" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="K20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="S20" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -1316,15 +1740,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="L22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="R22" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>18</v>
       </c>
@@ -1332,55 +1759,88 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>19</v>
       </c>
       <c r="K24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="S24" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>51</v>
       </c>
       <c r="L25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="S25" t="s">
+        <v>84</v>
+      </c>
+      <c r="T25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>86</v>
+      </c>
+      <c r="T26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="S27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="S29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="S31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L32" t="s">
         <v>49</v>
+      </c>
+      <c r="S32" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="10:12" x14ac:dyDescent="0.25">
@@ -1444,11 +1904,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
+    <mergeCell ref="R3:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\python-intensivo-zero2hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A11135-86C7-4D02-8CC5-BB99C851E498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F08BD36-5E3C-44B1-92AA-3E8D4C717EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -147,7 +147,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Carlos Daniel:</t>
         </r>
@@ -156,7 +156,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 L[::]: todos los elementos
@@ -374,6 +374,80 @@
 def sum(*args):
     return sum(args)
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T42" authorId="0" shapeId="0" xr:uid="{90F5415E-7209-41FC-B559-0DF73FCC1A5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Se puede omitir el valor de k y poner por ejemplo 
+np.arrange(3,10)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T55" authorId="0" shapeId="0" xr:uid="{381173ED-CF0C-4751-9084-421D9E68A85D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Recordar que Python empieza a contar desde cero
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T57" authorId="0" shapeId="0" xr:uid="{6AC88AF6-13E5-4E4C-8195-D37AC0A312CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Recordar que Python empieza a contar desde cero, </t>
         </r>
       </text>
     </comment>
@@ -382,7 +456,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Operaciones</t>
   </si>
@@ -1018,9 +1092,6 @@
     <t>Uso del "%s"</t>
   </si>
   <si>
-    <t>(para arrays o strings</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uso del %d </t>
   </si>
   <si>
@@ -1083,13 +1154,229 @@
       </rPr>
       <t xml:space="preserve"> valor1, key2 : valor2 }</t>
     </r>
+  </si>
+  <si>
+    <t>(para arrays o strings)</t>
+  </si>
+  <si>
+    <t>NumPy</t>
+  </si>
+  <si>
+    <t>np.array(x)</t>
+  </si>
+  <si>
+    <t>Para convertir "x" a una array</t>
+  </si>
+  <si>
+    <t>np.zeros( (n,m) )</t>
+  </si>
+  <si>
+    <t>Matriz de n*m llena de ceros</t>
+  </si>
+  <si>
+    <t>np.ones( (n,m) )</t>
+  </si>
+  <si>
+    <t>Crea una array con valores de 0 a n-1</t>
+  </si>
+  <si>
+    <t>Crea un array de "a" a "b" incrementando en "k"</t>
+  </si>
+  <si>
+    <t>np.linspace(a,b,k)</t>
+  </si>
+  <si>
+    <t>Crea un array de "a" a "b" y que haya "k" valores</t>
+  </si>
+  <si>
+    <t>entre esos dos numeros</t>
+  </si>
+  <si>
+    <t>np.transpose(x)</t>
+  </si>
+  <si>
+    <t>Transpone un array "x"</t>
+  </si>
+  <si>
+    <t>Propiedades de arrays</t>
+  </si>
+  <si>
+    <t>np.arange(n)</t>
+  </si>
+  <si>
+    <t>np.arange(a,b,k)</t>
+  </si>
+  <si>
+    <t>x.shape</t>
+  </si>
+  <si>
+    <t>Devuelve el número de filas y columnas de la array x</t>
+  </si>
+  <si>
+    <t>x.size</t>
+  </si>
+  <si>
+    <t>Devuelve el número de elementos de la array x</t>
+  </si>
+  <si>
+    <t>x[2]</t>
+  </si>
+  <si>
+    <t>x[2,1]</t>
+  </si>
+  <si>
+    <t>Devuelve el elemento a_21</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Devuelve los elementos de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tercera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fila</t>
+    </r>
+  </si>
+  <si>
+    <t>Sea x una array en Python, puede ser en forma de vector o como matriz</t>
+  </si>
+  <si>
+    <t>y un decimal, por ejemplo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- En arrays solo se pueden almacenar datos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>homogéneos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, no se puede tener un entero</t>
+    </r>
+  </si>
+  <si>
+    <t>Copias y vistas de arrays</t>
+  </si>
+  <si>
+    <t>z=x.copy()</t>
+  </si>
+  <si>
+    <t>afectan a x</t>
+  </si>
+  <si>
+    <t>Para realizar una copia del array x en "z", los cambios en z NO</t>
+  </si>
+  <si>
+    <t>t=x.view()</t>
+  </si>
+  <si>
+    <t>Al modificar t, se modifica x</t>
+  </si>
+  <si>
+    <t>Funciones universales (ufunc)</t>
+  </si>
+  <si>
+    <t>- Son funciones que se realizan en cada uno de los elementos de un array sin</t>
+  </si>
+  <si>
+    <t>necesidad de implementar un bucle</t>
+  </si>
+  <si>
+    <t>np.nansum(x)</t>
+  </si>
+  <si>
+    <t>La suma de los elementos de la array x sin los nan</t>
+  </si>
+  <si>
+    <t>np.sum(x)</t>
+  </si>
+  <si>
+    <t>La suma de los elementos de la array x</t>
+  </si>
+  <si>
+    <t>np.argmin(x)</t>
+  </si>
+  <si>
+    <t>np.argmax(x)</t>
+  </si>
+  <si>
+    <t>mas pequeño</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dan la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>posicion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> del elemento que es mas pequeño y</t>
+    </r>
+  </si>
+  <si>
+    <t>x.sum(axis=1)</t>
+  </si>
+  <si>
+    <t>La suma por filas</t>
+  </si>
+  <si>
+    <t>x.sum(axis=0)</t>
+  </si>
+  <si>
+    <t>La suma por columnas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,19 +1404,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1191,6 +1465,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1200,7 +1475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1515,43 +1789,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
-  <dimension ref="B2:X44"/>
+  <dimension ref="B2:X84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M12" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J65" workbookViewId="0">
+      <selection activeCell="T85" sqref="T85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="J3" s="1" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="3"/>
-      <c r="R3" s="1" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4"/>
+      <c r="R3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="4"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1571,7 +1845,7 @@
       <c r="K6" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1582,7 +1856,7 @@
       <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1593,7 +1867,7 @@
       <c r="J8" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1717,7 +1991,7 @@
       <c r="L19" t="s">
         <v>36</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="S19" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1728,7 +2002,7 @@
       <c r="K20" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1747,7 +2021,7 @@
       <c r="L22" t="s">
         <v>40</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1766,7 +2040,7 @@
       <c r="K24" t="s">
         <v>44</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="S24" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1781,7 +2055,7 @@
         <v>84</v>
       </c>
       <c r="T25" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
@@ -1789,10 +2063,10 @@
         <v>42</v>
       </c>
       <c r="S26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
@@ -1800,7 +2074,7 @@
         <v>43</v>
       </c>
       <c r="S27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
@@ -1816,7 +2090,7 @@
         <v>46</v>
       </c>
       <c r="S29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
@@ -1824,7 +2098,7 @@
         <v>47</v>
       </c>
       <c r="S30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -1832,7 +2106,7 @@
         <v>48</v>
       </c>
       <c r="S31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
@@ -1840,67 +2114,283 @@
         <v>49</v>
       </c>
       <c r="S32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="10:20" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="10:20" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="T35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="10:20" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="S36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="10:20" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="T37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J38" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="S38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="10:20" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="S39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="10:20" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="41" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="T40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="10:20" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="S41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="10:20" x14ac:dyDescent="0.25">
       <c r="L42" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="T42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="10:20" x14ac:dyDescent="0.25">
       <c r="L43" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="S43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="10:20" x14ac:dyDescent="0.25">
       <c r="L44" t="s">
         <v>61</v>
+      </c>
+      <c r="T44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="T45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="S46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="T47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="T51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="T53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="T55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="T57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R58" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="T64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="T65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="T67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S70" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="T74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="T76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S77" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="T79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="T80" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="T82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="T84" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\python-intensivo-zero2hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F08BD36-5E3C-44B1-92AA-3E8D4C717EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611182BB-CD63-4C35-B545-F84DDF11B702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -65,6 +65,94 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC7" authorId="0" shapeId="0" xr:uid="{61E470F8-B7BE-4185-9334-0F32BCC5802F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Dentro se escribe en LaTeX.
+ylab=expression(e^{-1})</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA8" authorId="0" shapeId="0" xr:uid="{E2B894E6-5EEF-4ED6-B8DA-3CDB5D3E92D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Point character </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pch</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, con valores desde 0 a 25.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cex</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, tamaño de los puntos</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S9" authorId="0" shapeId="0" xr:uid="{B5A1AB24-7322-49BC-868F-FD11623AAF1E}">
       <text>
         <r>
@@ -115,6 +203,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA10" authorId="0" shapeId="0" xr:uid="{8661E381-0548-4CB6-A44E-59340003AADB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+background</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S11" authorId="0" shapeId="0" xr:uid="{1C4F76E7-1546-4151-A887-352F6AEB4688}">
       <text>
         <r>
@@ -324,6 +436,30 @@
           </rPr>
           <t xml:space="preserve">
 print("Estos son los números primos: %s" %primos)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB25" authorId="0" shapeId="0" xr:uid="{F1EBFC40-8E42-4377-A5FA-5E9206C677FC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Dos divisiones en el eje x, que empieza en valor a y termina en b</t>
         </r>
       </text>
     </comment>
@@ -456,7 +592,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>Operaciones</t>
   </si>
@@ -1370,13 +1506,91 @@
   </si>
   <si>
     <t>La suma por columnas</t>
+  </si>
+  <si>
+    <t>Introducción a la representación gráfica</t>
+  </si>
+  <si>
+    <t>Parámetros de la función plot</t>
+  </si>
+  <si>
+    <t>main='titulo'</t>
+  </si>
+  <si>
+    <t>xlab, ylab</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>pch, cex</t>
+  </si>
+  <si>
+    <t>par(mfrow=c(1,2))</t>
+  </si>
+  <si>
+    <t>Divide la pantalla en una fila y dos imágenes</t>
+  </si>
+  <si>
+    <t>---&gt;</t>
+  </si>
+  <si>
+    <t>Se pueden igualar a expression()</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>Para rellenar de color los puntos de la gráfica</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Valores: p, l, b, o, h, s, n</t>
+  </si>
+  <si>
+    <t>lty</t>
+  </si>
+  <si>
+    <t>Valores: solid, dashed, dotted, dotdashed</t>
+  </si>
+  <si>
+    <t>Stands for "line type"</t>
+  </si>
+  <si>
+    <t>lwd</t>
+  </si>
+  <si>
+    <t>Para el grosor de la linea</t>
+  </si>
+  <si>
+    <t>Stands for "line width"</t>
+  </si>
+  <si>
+    <t>xlim, ylim</t>
+  </si>
+  <si>
+    <t>Modificar el rango de X e Y, un vector de dos puntos</t>
+  </si>
+  <si>
+    <t>xaxp, yaxp</t>
+  </si>
+  <si>
+    <t>El número de visiones que queremos en el eje x e y</t>
+  </si>
+  <si>
+    <t>xaxp=c(a,b,2)</t>
+  </si>
+  <si>
+    <t>Añadir puntos y rectas a un gráfico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1401,6 +1615,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1463,7 +1684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1475,6 +1696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1789,16 +2011,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
-  <dimension ref="B2:X84"/>
+  <dimension ref="B2:AF84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J65" workbookViewId="0">
-      <selection activeCell="T85" sqref="T85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S18" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1826,8 +2048,17 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="4"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="4"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1837,8 +2068,11 @@
       <c r="R5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -1848,8 +2082,11 @@
       <c r="S6" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -1859,8 +2096,17 @@
       <c r="S7" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -1870,8 +2116,11 @@
       <c r="S8" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -1881,8 +2130,11 @@
       <c r="S9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -1892,8 +2144,11 @@
       <c r="S10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -1906,8 +2161,11 @@
       <c r="U11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AB11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -1917,8 +2175,11 @@
       <c r="S12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -1928,8 +2189,11 @@
       <c r="S13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -1940,7 +2204,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -1950,8 +2214,11 @@
       <c r="R15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -1961,8 +2228,11 @@
       <c r="S16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AB16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -1972,8 +2242,14 @@
       <c r="S17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AA17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -1983,8 +2259,11 @@
       <c r="R18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AB18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -1994,8 +2273,14 @@
       <c r="S19" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AA19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -2005,16 +2290,22 @@
       <c r="S20" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AB20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="L21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AA21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -2024,16 +2315,22 @@
       <c r="R22" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AB22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>18</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AA23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -2043,8 +2340,11 @@
       <c r="S24" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AB24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>51</v>
       </c>
@@ -2057,8 +2357,11 @@
       <c r="T25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AB25" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
         <v>42</v>
       </c>
@@ -2069,15 +2372,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>43</v>
       </c>
       <c r="S27" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>45</v>
       </c>
@@ -2085,7 +2391,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>46</v>
       </c>
@@ -2093,7 +2399,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
         <v>47</v>
       </c>
@@ -2101,7 +2407,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
         <v>48</v>
       </c>
@@ -2109,7 +2415,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="L32" t="s">
         <v>49</v>
       </c>
@@ -2394,10 +2700,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
     <mergeCell ref="R3:X3"/>
+    <mergeCell ref="Z3:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\python-intensivo-zero2hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611182BB-CD63-4C35-B545-F84DDF11B702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F99AC2D-3FE1-40EB-BE8A-38C19031DA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -487,6 +487,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA34" authorId="0" shapeId="0" xr:uid="{33537B77-7631-4DD1-94AF-51A2E5BFBD67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Con estos se puede hacer una "rejilla" para la gráfica</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K39" authorId="0" shapeId="0" xr:uid="{2D73F51A-FE9F-4BA5-8949-3FAA355C9086}">
       <text>
         <r>
@@ -535,6 +559,30 @@
           <t xml:space="preserve">
 Se puede omitir el valor de k y poner por ejemplo 
 np.arrange(3,10)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC48" authorId="0" shapeId="0" xr:uid="{239D44EB-5D51-4550-B4BE-14FF522D2A9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Es decir, se pueden especificar varios textos y en consecuencia diferentes posiciones pero en un vector</t>
         </r>
       </text>
     </comment>
@@ -592,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Operaciones</t>
   </si>
@@ -1508,9 +1556,6 @@
     <t>La suma por columnas</t>
   </si>
   <si>
-    <t>Introducción a la representación gráfica</t>
-  </si>
-  <si>
     <t>Parámetros de la función plot</t>
   </si>
   <si>
@@ -1584,13 +1629,189 @@
   </si>
   <si>
     <t>Añadir puntos y rectas a un gráfico</t>
+  </si>
+  <si>
+    <t>points(x,y)</t>
+  </si>
+  <si>
+    <t>Añade el punto con coordenadas (x,y)</t>
+  </si>
+  <si>
+    <t>abline(a,b)</t>
+  </si>
+  <si>
+    <t>Añade la recta y=a+bx</t>
+  </si>
+  <si>
+    <t>abline(v=x0)</t>
+  </si>
+  <si>
+    <t>Añade la recta vertical x=x0</t>
+  </si>
+  <si>
+    <t>abline(h=y0)</t>
+  </si>
+  <si>
+    <t>Añade la recta horizontal y=y0</t>
+  </si>
+  <si>
+    <t>plot(argumentos)</t>
+  </si>
+  <si>
+    <t>points(argumentos)</t>
+  </si>
+  <si>
+    <t>abline(argumentos)</t>
+  </si>
+  <si>
+    <t>Se pueden incluir los argumentos ya vistos dentro</t>
+  </si>
+  <si>
+    <t>de points y abline</t>
+  </si>
+  <si>
+    <t>- En cualquiera de estos argumentos se aceptan vectores de valores</t>
+  </si>
+  <si>
+    <t>Sintaxis en R</t>
+  </si>
+  <si>
+    <t>Añadir texto y curvas a un gráfico</t>
+  </si>
+  <si>
+    <t>text( x, y, labels = "..." )</t>
+  </si>
+  <si>
+    <t>Añade en el punto (x,y) el texto especificado en labels</t>
+  </si>
+  <si>
+    <t>Indica la posición del texto alrededor de las coord. (x,y)</t>
+  </si>
+  <si>
+    <t>Valores: 1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>Este argumento acepta vectores como valores</t>
+  </si>
+  <si>
+    <t>lines(x,y)</t>
+  </si>
+  <si>
+    <t>Añade una linea poligonal que une los puntos (xi,yi)</t>
+  </si>
+  <si>
+    <t>(x e y son vectores numéricos)</t>
+  </si>
+  <si>
+    <t>curve(curva)</t>
+  </si>
+  <si>
+    <t>add=TRUE</t>
+  </si>
+  <si>
+    <t>Añade la curva, si no, no la añade</t>
+  </si>
+  <si>
+    <t>Añade una curva a un gráfico ya existente, expresada como una</t>
+  </si>
+  <si>
+    <t>expresion alg con variable x, o nombre de una función</t>
+  </si>
+  <si>
+    <t>Leyendas en los gráficos</t>
+  </si>
+  <si>
+    <t>legend( posición, legend= … )</t>
+  </si>
+  <si>
+    <t>bottom, bottomright, bottomleft, top, topright, topleft</t>
+  </si>
+  <si>
+    <t>center, right, left</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>posición</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> puede tomar los siguientes valores</t>
+    </r>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>Contiene el vector de nombres entre comillas</t>
+  </si>
+  <si>
+    <t>Se le puede agregar los mismos argumentos que la función plot en cuanto</t>
+  </si>
+  <si>
+    <t>a color, lwd, lty, etc</t>
+  </si>
+  <si>
+    <t>Segmentos, flechas, símbolos y polígonos</t>
+  </si>
+  <si>
+    <t>Añade segmentos (una linea con principio y fin)</t>
+  </si>
+  <si>
+    <t>Añade flechas</t>
+  </si>
+  <si>
+    <t>Añade símbolos</t>
+  </si>
+  <si>
+    <t>Añade polígonos cerrados especificando sus vértices</t>
+  </si>
+  <si>
+    <t>segments()</t>
+  </si>
+  <si>
+    <t>arrows()</t>
+  </si>
+  <si>
+    <t>symbols()</t>
+  </si>
+  <si>
+    <t>polygon()</t>
+  </si>
+  <si>
+    <t>Ejemplo de esto en la última diapositiva</t>
+  </si>
+  <si>
+    <t>Introducción a la representación gráfica ( R )</t>
+  </si>
+  <si>
+    <t>Introducción a la representación gráfica ( Python )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1622,6 +1843,13 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1684,9 +1912,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1696,7 +1925,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2011,54 +2242,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
-  <dimension ref="B2:AF84"/>
+  <dimension ref="B2:AN84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S18" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="J3" s="2" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
-      <c r="R3" s="2" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
+      <c r="R3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="4"/>
-      <c r="Z3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="4"/>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="5"/>
+      <c r="Z3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="5"/>
+      <c r="AH3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="5"/>
+    </row>
+    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -2069,10 +2309,10 @@
         <v>64</v>
       </c>
       <c r="Z5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -2083,10 +2323,10 @@
         <v>65</v>
       </c>
       <c r="AA6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -2097,16 +2337,16 @@
         <v>66</v>
       </c>
       <c r="AA7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC7" t="s">
         <v>149</v>
       </c>
-      <c r="AC7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -2117,10 +2357,10 @@
         <v>67</v>
       </c>
       <c r="AA8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -2131,10 +2371,10 @@
         <v>68</v>
       </c>
       <c r="AA9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -2145,10 +2385,10 @@
         <v>70</v>
       </c>
       <c r="AA10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -2162,10 +2402,10 @@
         <v>71</v>
       </c>
       <c r="AB11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -2176,10 +2416,10 @@
         <v>72</v>
       </c>
       <c r="Z12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -2190,10 +2430,10 @@
         <v>73</v>
       </c>
       <c r="AA13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -2215,10 +2455,10 @@
         <v>75</v>
       </c>
       <c r="AA15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -2229,7 +2469,7 @@
         <v>76</v>
       </c>
       <c r="AB16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
@@ -2243,10 +2483,10 @@
         <v>77</v>
       </c>
       <c r="AA17" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
@@ -2260,7 +2500,7 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
@@ -2274,10 +2514,10 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
@@ -2291,7 +2531,7 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
@@ -2302,7 +2542,7 @@
         <v>39</v>
       </c>
       <c r="AA21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
@@ -2316,7 +2556,7 @@
         <v>81</v>
       </c>
       <c r="AB22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
@@ -2327,7 +2567,7 @@
         <v>38</v>
       </c>
       <c r="AA23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
@@ -2341,7 +2581,7 @@
         <v>83</v>
       </c>
       <c r="AB24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
@@ -2357,8 +2597,8 @@
       <c r="T25" t="s">
         <v>92</v>
       </c>
-      <c r="AB25" s="5" t="s">
-        <v>165</v>
+      <c r="AB25" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
@@ -2380,7 +2620,7 @@
         <v>86</v>
       </c>
       <c r="Z27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
@@ -2390,6 +2630,9 @@
       <c r="R28" t="s">
         <v>82</v>
       </c>
+      <c r="AA28" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
@@ -2398,6 +2641,9 @@
       <c r="S29" t="s">
         <v>91</v>
       </c>
+      <c r="AB29" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
@@ -2406,6 +2652,9 @@
       <c r="S30" t="s">
         <v>88</v>
       </c>
+      <c r="AA30" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
@@ -2414,6 +2663,9 @@
       <c r="S31" t="s">
         <v>89</v>
       </c>
+      <c r="AB31" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="L32" t="s">
@@ -2422,32 +2674,44 @@
       <c r="S32" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="AA32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="10:29" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
         <v>50</v>
       </c>
       <c r="R33" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="AB33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
         <v>52</v>
       </c>
       <c r="S34" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="AA34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="10:29" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>53</v>
       </c>
       <c r="T35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="AB35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="10:29" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>54</v>
       </c>
@@ -2455,15 +2719,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:29" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
         <v>55</v>
       </c>
       <c r="T37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="Z37" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J38" t="s">
         <v>56</v>
       </c>
@@ -2471,39 +2738,57 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:29" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
         <v>57</v>
       </c>
       <c r="S39" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="Z39" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="10:29" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>58</v>
       </c>
       <c r="T40" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="Z40" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="10:29" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>59</v>
       </c>
       <c r="S41" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="42" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="Z41" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="10:29" x14ac:dyDescent="0.25">
       <c r="L42" t="s">
         <v>60</v>
       </c>
       <c r="T42" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="Z42" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="10:29" x14ac:dyDescent="0.25">
       <c r="L43" t="s">
         <v>62</v>
       </c>
@@ -2511,200 +2796,311 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:29" x14ac:dyDescent="0.25">
       <c r="L44" t="s">
         <v>61</v>
       </c>
       <c r="T44" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="Z44" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="10:29" x14ac:dyDescent="0.25">
       <c r="T45" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="AA45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="10:29" x14ac:dyDescent="0.25">
       <c r="S46" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="47" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="AB46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="10:29" x14ac:dyDescent="0.25">
       <c r="T47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:29" x14ac:dyDescent="0.25">
       <c r="R48" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="49" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB48" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R49" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="18:28" x14ac:dyDescent="0.25">
       <c r="S50" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="51" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="18:28" x14ac:dyDescent="0.25">
       <c r="T51" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="18:28" x14ac:dyDescent="0.25">
       <c r="S52" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="53" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AA52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="18:28" x14ac:dyDescent="0.25">
       <c r="T53" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="18:28" x14ac:dyDescent="0.25">
       <c r="S54" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="55" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB54" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="18:28" x14ac:dyDescent="0.25">
       <c r="T55" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="56" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AA55" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="18:28" x14ac:dyDescent="0.25">
       <c r="S56" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="57" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="18:28" x14ac:dyDescent="0.25">
       <c r="T57" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="58" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R58" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R59" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB59" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="AB60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R61" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="Z62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="18:28" x14ac:dyDescent="0.25">
       <c r="S63" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="64" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AA63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="18:28" x14ac:dyDescent="0.25">
       <c r="T64" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="65" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="18:28" x14ac:dyDescent="0.25">
       <c r="T65" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="66" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB65" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="18:28" x14ac:dyDescent="0.25">
       <c r="S66" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="18:28" x14ac:dyDescent="0.25">
       <c r="T67" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="AB68" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R69" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="70" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB69" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="18:28" x14ac:dyDescent="0.25">
       <c r="S70" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="18:28" x14ac:dyDescent="0.25">
       <c r="S71" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="73" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AA71" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="AA72" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="18:28" x14ac:dyDescent="0.25">
       <c r="S73" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="18:28" x14ac:dyDescent="0.25">
       <c r="T74" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="75" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="Z74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="18:28" x14ac:dyDescent="0.25">
       <c r="S75" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="76" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AA75" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="18:28" x14ac:dyDescent="0.25">
       <c r="T76" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="77" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="18:28" x14ac:dyDescent="0.25">
       <c r="S77" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="78" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AA77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="18:28" x14ac:dyDescent="0.25">
       <c r="S78" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="79" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AB78" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="18:28" x14ac:dyDescent="0.25">
       <c r="T79" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="80" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="AA79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="18:28" x14ac:dyDescent="0.25">
       <c r="T80" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="81" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="19:28" x14ac:dyDescent="0.25">
       <c r="S81" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="82" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="AA81" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="19:28" x14ac:dyDescent="0.25">
       <c r="T82" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="83" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="19:28" x14ac:dyDescent="0.25">
       <c r="S83" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="19:28" x14ac:dyDescent="0.25">
       <c r="T84" t="s">
         <v>140</v>
       </c>
+      <c r="Z84" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\python-intensivo-zero2hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F99AC2D-3FE1-40EB-BE8A-38C19031DA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDDF5F8-34E8-4C72-9410-94B5B7BF2EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -391,6 +391,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK20" authorId="0" shapeId="0" xr:uid="{3495B331-F428-4467-8C25-34720F162DE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+transparencia</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C23" authorId="0" shapeId="0" xr:uid="{F124C5C0-2923-4BF8-9E0A-32BEEF6C5942}">
       <text>
         <r>
@@ -412,6 +436,31 @@
           </rPr>
           <t xml:space="preserve">
 Parte entera de x, elimita la parte decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ24" authorId="0" shapeId="0" xr:uid="{B07A9C34-3E2D-4D04-A75A-B86A557E5BE6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Donde se tienen tres conjutnos de datos (pero x sigue siendo el mismo para los 3)
+(x,y1) , (x,y2), (x,y3)</t>
         </r>
       </text>
     </comment>
@@ -460,6 +509,55 @@
           </rPr>
           <t xml:space="preserve">
 Dos divisiones en el eje x, que empieza en valor a y termina en b</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI26" authorId="0" shapeId="0" xr:uid="{C7930BAC-82F7-4319-8FB6-F88A87E2F9D1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"gráfico" hace referencia a un gráfico que se guarda en una variable, así como si fuera "x"
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI33" authorId="0" shapeId="0" xr:uid="{63A0FAD7-DADE-450E-8E43-512C4C5C9CF2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Dentro se puede especificar el arguemnto figsize=(a,b)</t>
         </r>
       </text>
     </comment>
@@ -640,7 +738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="254">
   <si>
     <t>Operaciones</t>
   </si>
@@ -1805,6 +1903,158 @@
   </si>
   <si>
     <t>Introducción a la representación gráfica ( Python )</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> matplotlib.pyplot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plt</t>
+    </r>
+  </si>
+  <si>
+    <t>plt.plot()</t>
+  </si>
+  <si>
+    <t>.xlabel( 'Eje x' )</t>
+  </si>
+  <si>
+    <t>.ylabel( 'Eje y' )</t>
+  </si>
+  <si>
+    <t>plt.show()</t>
+  </si>
+  <si>
+    <t>plt.plot( x, y )</t>
+  </si>
+  <si>
+    <t>Crea una gráfica de una linea continua</t>
+  </si>
+  <si>
+    <t>plt.plot( x, y, "ro")</t>
+  </si>
+  <si>
+    <t>Crea una gráfica de puntos "red" con "o" de circuclos</t>
+  </si>
+  <si>
+    <t>.axis( [a, b, c, d ] )</t>
+  </si>
+  <si>
+    <t>Muestra la gráfica desde los valores de "x" pertenecientes</t>
+  </si>
+  <si>
+    <t>a [a,b] y los valores de "y" pertenecientes a [c,d]</t>
+  </si>
+  <si>
+    <t>Otros valores: "r--", "bs", "g^", etc</t>
+  </si>
+  <si>
+    <t>Parámetros de la funcion plot()</t>
+  </si>
+  <si>
+    <t>linewidth = 1.0</t>
+  </si>
+  <si>
+    <t>Se pueden crear multiples gráficas dentro de un mismo plt.plot()</t>
+  </si>
+  <si>
+    <t>como</t>
+  </si>
+  <si>
+    <t>plt.plot( x, y1, "ro", x, y2, "-", x, y3, "bs")</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>(estos se llaman "linestyle")</t>
+  </si>
+  <si>
+    <t>Permite ver todos los argumentos que se pueden poner en el gráfico</t>
+  </si>
+  <si>
+    <t>plt.setp( gráfico )</t>
+  </si>
+  <si>
+    <t>Múltiples gráficos en una misma figura</t>
+  </si>
+  <si>
+    <t>plt.figure(1)</t>
+  </si>
+  <si>
+    <t>plt.subplot(2,1,1)</t>
+  </si>
+  <si>
+    <t>plt.subplot(2,1,2)</t>
+  </si>
+  <si>
+    <t>Primer gráfico</t>
+  </si>
+  <si>
+    <t>Segundo gráfico</t>
+  </si>
+  <si>
+    <t>Una figura, compuesta por dos graficos, en dos renglones una columna</t>
+  </si>
+  <si>
+    <t>Textos en gráficos</t>
+  </si>
+  <si>
+    <t>plt.text( x, y, 'texto' )</t>
+  </si>
+  <si>
+    <t>Se puede usar la sintaxis de LaTeX usando r'texto en LaTeX'</t>
+  </si>
+  <si>
+    <t>plt.grid(True)</t>
+  </si>
+  <si>
+    <t>Permite dibujar la "parrilla" en el gráfico</t>
+  </si>
+  <si>
+    <t>plt.annotate()</t>
+  </si>
+  <si>
+    <t>plt.ylim(a,b)</t>
+  </si>
+  <si>
+    <t>plt.xlim(a,b)</t>
   </si>
 </sst>
 </file>
@@ -1916,6 +2166,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1925,9 +2177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2244,59 +2494,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
   <dimension ref="B2:AN84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AO13" sqref="AO13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AH51" sqref="AH51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="5"/>
-      <c r="R3" s="3" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+      <c r="R3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="5"/>
-      <c r="Z3" s="3" t="s">
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="7"/>
+      <c r="Z3" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="5"/>
-      <c r="AH3" s="3" t="s">
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="7"/>
+      <c r="AH3" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="5"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="7"/>
     </row>
     <row r="5" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -2311,6 +2561,9 @@
       <c r="Z5" t="s">
         <v>141</v>
       </c>
+      <c r="AH5" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -2325,6 +2578,12 @@
       <c r="AA6" t="s">
         <v>142</v>
       </c>
+      <c r="AI6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -2345,6 +2604,9 @@
       <c r="AC7" t="s">
         <v>149</v>
       </c>
+      <c r="AJ7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -2359,6 +2621,9 @@
       <c r="AA8" t="s">
         <v>145</v>
       </c>
+      <c r="AI8" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -2373,6 +2638,9 @@
       <c r="AA9" t="s">
         <v>144</v>
       </c>
+      <c r="AI9" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2387,6 +2655,9 @@
       <c r="AA10" t="s">
         <v>150</v>
       </c>
+      <c r="AI10" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -2404,6 +2675,9 @@
       <c r="AB11" t="s">
         <v>151</v>
       </c>
+      <c r="AJ11" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="12" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -2418,6 +2692,9 @@
       <c r="Z12" t="s">
         <v>146</v>
       </c>
+      <c r="AJ12" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -2443,6 +2720,9 @@
       <c r="S14" t="s">
         <v>74</v>
       </c>
+      <c r="AI14" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -2457,6 +2737,9 @@
       <c r="AA15" t="s">
         <v>152</v>
       </c>
+      <c r="AJ15" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -2471,8 +2754,14 @@
       <c r="AB16" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AJ16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -2489,7 +2778,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -2502,8 +2791,11 @@
       <c r="AB18" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AJ18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -2519,8 +2811,11 @@
       <c r="AB19" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AK19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -2533,8 +2828,11 @@
       <c r="AB20" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AK20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -2545,7 +2843,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -2558,8 +2856,11 @@
       <c r="AB22" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AJ22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>18</v>
       </c>
@@ -2569,8 +2870,11 @@
       <c r="AA23" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AJ23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -2583,8 +2887,11 @@
       <c r="AB24" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AJ24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>51</v>
       </c>
@@ -2601,7 +2908,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
         <v>42</v>
       </c>
@@ -2611,8 +2918,11 @@
       <c r="T26" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AI26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>43</v>
       </c>
@@ -2622,8 +2932,11 @@
       <c r="Z27" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AJ27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>45</v>
       </c>
@@ -2634,7 +2947,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>46</v>
       </c>
@@ -2644,8 +2957,11 @@
       <c r="AB29" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AI29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
         <v>47</v>
       </c>
@@ -2655,8 +2971,11 @@
       <c r="AA30" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AI30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
         <v>48</v>
       </c>
@@ -2667,7 +2986,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
       <c r="L32" t="s">
         <v>49</v>
       </c>
@@ -2677,8 +2996,11 @@
       <c r="AA32" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="33" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="AH32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="10:37" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
         <v>50</v>
       </c>
@@ -2688,8 +3010,14 @@
       <c r="AB33" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="34" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="AI33" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK33" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="10:37" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
         <v>52</v>
       </c>
@@ -2699,8 +3027,12 @@
       <c r="AA34" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="35" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="AI34" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK34" s="3"/>
+    </row>
+    <row r="35" spans="10:37" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>53</v>
       </c>
@@ -2710,16 +3042,26 @@
       <c r="AB35" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="36" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="AI35" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK35" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="10:37" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>54</v>
       </c>
       <c r="S36" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="AI36" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK36" s="3"/>
+    </row>
+    <row r="37" spans="10:37" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
         <v>55</v>
       </c>
@@ -2729,8 +3071,14 @@
       <c r="Z37" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="38" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="AI37" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK37" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="10:37" x14ac:dyDescent="0.25">
       <c r="J38" t="s">
         <v>56</v>
       </c>
@@ -2738,84 +3086,103 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:37" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
         <v>57</v>
       </c>
       <c r="S39" t="s">
         <v>107</v>
       </c>
-      <c r="Z39" s="6" t="s">
+      <c r="Z39" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="40" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="AH39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="10:37" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>58</v>
       </c>
       <c r="T40" t="s">
         <v>99</v>
       </c>
-      <c r="Z40" s="6" t="s">
+      <c r="Z40" s="3" t="s">
         <v>174</v>
       </c>
       <c r="AB40" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:37" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>59</v>
       </c>
       <c r="S41" t="s">
         <v>108</v>
       </c>
-      <c r="Z41" s="6" t="s">
+      <c r="Z41" s="3" t="s">
         <v>175</v>
       </c>
       <c r="AB41" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="42" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="AI41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="10:37" x14ac:dyDescent="0.25">
       <c r="L42" t="s">
         <v>60</v>
       </c>
       <c r="T42" t="s">
         <v>100</v>
       </c>
-      <c r="Z42" s="6" t="s">
+      <c r="Z42" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="43" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="AJ42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="10:37" x14ac:dyDescent="0.25">
       <c r="L43" t="s">
         <v>62</v>
       </c>
       <c r="S43" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="44" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="AI43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="10:37" x14ac:dyDescent="0.25">
       <c r="L44" t="s">
         <v>61</v>
       </c>
       <c r="T44" t="s">
         <v>102</v>
       </c>
-      <c r="Z44" s="7" t="s">
+      <c r="Z44" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="45" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="AJ44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="10:37" x14ac:dyDescent="0.25">
       <c r="T45" t="s">
         <v>103</v>
       </c>
       <c r="AA45" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="46" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="AI45" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ45" s="8"/>
+    </row>
+    <row r="46" spans="10:37" x14ac:dyDescent="0.25">
       <c r="S46" t="s">
         <v>104</v>
       </c>
@@ -2823,16 +3190,16 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="10:37" x14ac:dyDescent="0.25">
       <c r="T47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:37" x14ac:dyDescent="0.25">
       <c r="R48" t="s">
         <v>106</v>
       </c>
-      <c r="AB48" s="8" t="s">
+      <c r="AB48" s="4" t="s">
         <v>186</v>
       </c>
       <c r="AC48" s="2" t="s">
@@ -2917,7 +3284,7 @@
       <c r="R59" t="s">
         <v>118</v>
       </c>
-      <c r="AB59" s="8" t="s">
+      <c r="AB59" s="4" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2974,7 +3341,7 @@
       </c>
     </row>
     <row r="68" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="AB68" s="8" t="s">
+      <c r="AB68" s="4" t="s">
         <v>201</v>
       </c>
     </row>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\python-intensivo-zero2hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDDF5F8-34E8-4C72-9410-94B5B7BF2EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9E4E2A-0C4F-4AE4-822A-10AAD9A12428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trabajando con R" sheetId="1" r:id="rId1"/>
+    <sheet name="R &amp; Python" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="255">
   <si>
     <t>Operaciones</t>
   </si>
@@ -2055,6 +2055,9 @@
   </si>
   <si>
     <t>plt.xlim(a,b)</t>
+  </si>
+  <si>
+    <t>Data frames</t>
   </si>
 </sst>
 </file>
@@ -2162,7 +2165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2177,7 +2180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2492,16 +2494,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
-  <dimension ref="B2:AN84"/>
+  <dimension ref="B2:AV84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AH51" sqref="AH51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AP5" sqref="AP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
@@ -2547,8 +2549,17 @@
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
       <c r="AN3" s="7"/>
-    </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AP3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="7"/>
+    </row>
+    <row r="5" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -2565,7 +2576,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -2585,7 +2596,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -2608,7 +2619,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -2625,7 +2636,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -2642,7 +2653,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -2659,7 +2670,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -2679,7 +2690,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -2696,7 +2707,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -2710,7 +2721,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -2724,7 +2735,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -2741,7 +2752,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -3180,7 +3191,6 @@
       <c r="AI45" t="s">
         <v>251</v>
       </c>
-      <c r="AJ45" s="8"/>
     </row>
     <row r="46" spans="10:37" x14ac:dyDescent="0.25">
       <c r="S46" t="s">
@@ -3462,7 +3472,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
     <mergeCell ref="R3:X3"/>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\python-intensivo-zero2hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9E4E2A-0C4F-4AE4-822A-10AAD9A12428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EF39C4-2C31-4521-9D5C-4B7BD4A9821C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -2116,7 +2116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2161,16 +2161,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2180,6 +2225,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2494,991 +2552,2691 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
-  <dimension ref="B2:AV84"/>
+  <dimension ref="B2:AW85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AP5" sqref="AP5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AL1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BA3" sqref="BA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+    <row r="2" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="J3" s="5" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-      <c r="R3" s="5" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+      <c r="R3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="7"/>
-      <c r="Z3" s="5" t="s">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3"/>
+      <c r="Z3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="7"/>
-      <c r="AH3" s="5" t="s">
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="3"/>
+      <c r="AH3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="7"/>
-      <c r="AP3" s="5" t="s">
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="3"/>
+      <c r="AQ3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="7"/>
-    </row>
-    <row r="5" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="3"/>
+    </row>
+    <row r="4" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="6"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="6"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="6"/>
+    </row>
+    <row r="5" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="J5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R5" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="R5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="6"/>
+      <c r="Z5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="6"/>
+      <c r="AH5" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="6" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="6"/>
+    </row>
+    <row r="6" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="6"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="6"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="7" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="6"/>
+    </row>
+    <row r="7" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L7" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="6"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="6"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="8" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="6"/>
+    </row>
+    <row r="8" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="6"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="6"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="9" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="6"/>
+    </row>
+    <row r="9" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K9" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S9" t="s">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="6"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="6"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="10" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="6"/>
+    </row>
+    <row r="10" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K10" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S10" t="s">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="6"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="6"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="11" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="6"/>
+    </row>
+    <row r="11" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L11" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S11" t="s">
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="U11" t="s">
+      <c r="T11" s="5"/>
+      <c r="U11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="6"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="6"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="12" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="6"/>
+    </row>
+    <row r="12" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K12" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S12" t="s">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="6"/>
+      <c r="Z12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="6"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="13" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="6"/>
+    </row>
+    <row r="13" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L13" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S13" t="s">
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="6"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="14" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="6"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="6"/>
+    </row>
+    <row r="14" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K14" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S14" t="s">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="6"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="6"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="5" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="15" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="6"/>
+    </row>
+    <row r="15" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K15" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R15" t="s">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="R15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="6"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="6"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="16" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="6"/>
+    </row>
+    <row r="16" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K16" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S16" t="s">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="6"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="6"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="AM16" s="3" t="s">
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="16" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="6"/>
+    </row>
+    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J17" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="J17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S17" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="6"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AB17" s="2" t="s">
+      <c r="AB17" s="12" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="6"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="6"/>
+    </row>
+    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K18" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R18" t="s">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="R18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="6"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="6"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="6"/>
+    </row>
+    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L19" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="6"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="AB19" s="2" t="s">
+      <c r="AB19" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="6"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="6"/>
+    </row>
+    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K20" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="6"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="6"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="6"/>
+    </row>
+    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L21" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="6"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="6"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="6"/>
+    </row>
+    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L22" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
+      <c r="R22" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="6"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="6"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="6"/>
+    </row>
+    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J23" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="J23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="6"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="6"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="6"/>
+    </row>
+    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K24" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="6"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="6"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="6"/>
+    </row>
+    <row r="25" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L25" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S25" t="s">
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T25" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AB25" s="2" t="s">
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="6"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="12" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L26" t="s">
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="6"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="6"/>
+    </row>
+    <row r="26" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S26" t="s">
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="6"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="6"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="K27" t="s">
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="6"/>
+    </row>
+    <row r="27" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="J27" s="4"/>
+      <c r="K27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="S27" t="s">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="6"/>
+      <c r="Z27" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="6"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="J28" t="s">
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="6"/>
+    </row>
+    <row r="28" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="J28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R28" t="s">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="6"/>
+      <c r="R28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="6"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="K29" t="s">
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="6"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="6"/>
+    </row>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="J29" s="4"/>
+      <c r="K29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="S29" t="s">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="6"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="6"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AI29" t="s">
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="6"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="K30" t="s">
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="6"/>
+    </row>
+    <row r="30" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="J30" s="4"/>
+      <c r="K30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S30" t="s">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="6"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AI30" t="s">
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="6"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L31" t="s">
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="6"/>
+    </row>
+    <row r="31" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="S31" t="s">
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="6"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="6"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L32" t="s">
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="6"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="6"/>
+    </row>
+    <row r="32" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="J32" s="4"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S32" t="s">
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="6"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="6"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="AH32" t="s">
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="6"/>
+      <c r="AH32" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="33" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="K33" t="s">
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="6"/>
+    </row>
+    <row r="33" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="J33" s="4"/>
+      <c r="K33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R33" t="s">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="6"/>
+      <c r="R33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="6"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="AI33" t="s">
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="6"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="AK33" s="3" t="s">
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="16" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="34" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="J34" t="s">
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="6"/>
+    </row>
+    <row r="34" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="J34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="S34" t="s">
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="6"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="6"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="AI34" t="s">
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="6"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="AK34" s="3"/>
-    </row>
-    <row r="35" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="K35" t="s">
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="6"/>
+    </row>
+    <row r="35" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="J35" s="4"/>
+      <c r="K35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T35" t="s">
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="6"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="6"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="6"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AK35" s="3" t="s">
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="16" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="36" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="K36" t="s">
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="6"/>
+    </row>
+    <row r="36" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="J36" s="4"/>
+      <c r="K36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S36" t="s">
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="6"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AI36" t="s">
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="6"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="6"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AK36" s="3"/>
-    </row>
-    <row r="37" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="K37" t="s">
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="6"/>
+    </row>
+    <row r="37" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="J37" s="4"/>
+      <c r="K37" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T37" t="s">
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="6"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="6"/>
+      <c r="Z37" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="AI37" t="s">
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="6"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AK37" s="3" t="s">
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="16" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="38" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="J38" t="s">
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="6"/>
+    </row>
+    <row r="38" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="J38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S38" t="s">
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="6"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="K39" t="s">
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="6"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="6"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="6"/>
+    </row>
+    <row r="39" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="J39" s="4"/>
+      <c r="K39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="S39" t="s">
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="6"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Z39" s="3" t="s">
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="6"/>
+      <c r="Z39" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="AH39" t="s">
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="6"/>
+      <c r="AH39" s="4" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="40" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="K40" t="s">
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="6"/>
+    </row>
+    <row r="40" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="J40" s="4"/>
+      <c r="K40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T40" t="s">
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="6"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="Z40" s="3" t="s">
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="6"/>
+      <c r="Z40" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="41" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="K41" t="s">
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="6"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="6"/>
+    </row>
+    <row r="41" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="J41" s="4"/>
+      <c r="K41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="S41" t="s">
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="6"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="Z41" s="3" t="s">
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="6"/>
+      <c r="Z41" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="AI41" t="s">
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="6"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="42" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="L42" t="s">
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="6"/>
+    </row>
+    <row r="42" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="J42" s="4"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="T42" t="s">
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="6"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="Z42" s="3" t="s">
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="6"/>
+      <c r="Z42" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="AJ42" t="s">
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="6"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="43" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="L43" t="s">
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="6"/>
+    </row>
+    <row r="43" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="J43" s="4"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S43" t="s">
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="6"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AI43" t="s">
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="6"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="6"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="44" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="L44" t="s">
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="6"/>
+    </row>
+    <row r="44" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="J44" s="4"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="T44" t="s">
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="6"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="6"/>
+      <c r="Z44" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AJ44" t="s">
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="6"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="45" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="T45" t="s">
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="6"/>
+    </row>
+    <row r="45" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="J45" s="7"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="9"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="6"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AI45" t="s">
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="6"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="46" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="S46" t="s">
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="6"/>
+    </row>
+    <row r="46" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="R46" s="4"/>
+      <c r="S46" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="6"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="47" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="T47" t="s">
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="6"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="8"/>
+      <c r="AO46" s="9"/>
+    </row>
+    <row r="47" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="R47" s="4"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="10:37" x14ac:dyDescent="0.25">
-      <c r="R48" t="s">
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="6"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="6"/>
+    </row>
+    <row r="48" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="R48" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AB48" s="4" t="s">
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="6"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="AC48" s="2" t="s">
+      <c r="AC48" s="12" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="49" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="R49" t="s">
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="6"/>
+    </row>
+    <row r="49" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R49" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="6"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="50" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="S50" t="s">
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="6"/>
+    </row>
+    <row r="50" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R50" s="4"/>
+      <c r="S50" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="6"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="51" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="T51" t="s">
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="6"/>
+    </row>
+    <row r="51" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R51" s="4"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="52" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="S52" t="s">
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="6"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="6"/>
+    </row>
+    <row r="52" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R52" s="4"/>
+      <c r="S52" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="6"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="53" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="T53" t="s">
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="6"/>
+    </row>
+    <row r="53" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R53" s="4"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="6"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="54" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="S54" t="s">
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="6"/>
+    </row>
+    <row r="54" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R54" s="4"/>
+      <c r="S54" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AB54" s="2" t="s">
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="6"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="12" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="55" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="T55" t="s">
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="6"/>
+    </row>
+    <row r="55" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R55" s="4"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="6"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="56" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="S56" t="s">
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="6"/>
+    </row>
+    <row r="56" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R56" s="4"/>
+      <c r="S56" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="6"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="57" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="T57" t="s">
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="6"/>
+    </row>
+    <row r="57" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R57" s="4"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="6"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="58" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="R58" s="1" t="s">
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="6"/>
+    </row>
+    <row r="58" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R58" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="59" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="R59" t="s">
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="6"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="6"/>
+    </row>
+    <row r="59" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AB59" s="4" t="s">
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="6"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="14" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="60" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="AB60" t="s">
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="6"/>
+    </row>
+    <row r="60" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R60" s="4"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="6"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="61" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="R61" t="s">
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="6"/>
+    </row>
+    <row r="61" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R61" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="Z62" t="s">
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="6"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="6"/>
+    </row>
+    <row r="62" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R62" s="4"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="6"/>
+      <c r="Z62" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="63" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="S63" t="s">
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="6"/>
+    </row>
+    <row r="63" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R63" s="4"/>
+      <c r="S63" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="6"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="64" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="T64" t="s">
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="6"/>
+    </row>
+    <row r="64" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R64" s="4"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="6"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="65" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="T65" t="s">
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="6"/>
+    </row>
+    <row r="65" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R65" s="4"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="6"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="66" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="S66" t="s">
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="6"/>
+    </row>
+    <row r="66" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R66" s="4"/>
+      <c r="S66" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="6"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="67" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="T67" t="s">
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="6"/>
+    </row>
+    <row r="67" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R67" s="4"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="68" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="AB68" s="4" t="s">
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="6"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="6"/>
+    </row>
+    <row r="68" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R68" s="4"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="6"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="14" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="69" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="R69" t="s">
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="6"/>
+    </row>
+    <row r="69" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R69" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="6"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="70" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="S70" s="1" t="s">
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="6"/>
+    </row>
+    <row r="70" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R70" s="4"/>
+      <c r="S70" s="10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="71" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="S71" t="s">
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="6"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="6"/>
+    </row>
+    <row r="71" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R71" s="4"/>
+      <c r="S71" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="6"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="72" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="AA72" t="s">
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="6"/>
+    </row>
+    <row r="72" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R72" s="4"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="6"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="73" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="S73" t="s">
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="6"/>
+    </row>
+    <row r="73" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R73" s="4"/>
+      <c r="S73" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="74" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="T74" t="s">
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="6"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="6"/>
+    </row>
+    <row r="74" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R74" s="4"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="6"/>
+      <c r="Z74" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="75" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="S75" t="s">
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="6"/>
+    </row>
+    <row r="75" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R75" s="4"/>
+      <c r="S75" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="6"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="76" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="T76" t="s">
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="6"/>
+    </row>
+    <row r="76" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R76" s="4"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="6"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="77" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="S77" t="s">
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="6"/>
+    </row>
+    <row r="77" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R77" s="4"/>
+      <c r="S77" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="6"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="78" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="S78" t="s">
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="6"/>
+    </row>
+    <row r="78" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R78" s="4"/>
+      <c r="S78" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="6"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="79" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="T79" t="s">
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="6"/>
+    </row>
+    <row r="79" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R79" s="4"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AA79" t="s">
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="6"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="80" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="T80" t="s">
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="6"/>
+    </row>
+    <row r="80" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R80" s="4"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="6"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="81" spans="19:28" x14ac:dyDescent="0.25">
-      <c r="S81" t="s">
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="6"/>
+    </row>
+    <row r="81" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R81" s="4"/>
+      <c r="S81" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AA81" t="s">
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="6"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="5" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="82" spans="19:28" x14ac:dyDescent="0.25">
-      <c r="T82" t="s">
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="6"/>
+    </row>
+    <row r="82" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R82" s="4"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="6"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="83" spans="19:28" x14ac:dyDescent="0.25">
-      <c r="S83" t="s">
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="6"/>
+    </row>
+    <row r="83" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R83" s="4"/>
+      <c r="S83" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="84" spans="19:28" x14ac:dyDescent="0.25">
-      <c r="T84" t="s">
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="6"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="6"/>
+    </row>
+    <row r="84" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R84" s="4"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z84" s="2" t="s">
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="6"/>
+      <c r="Z84" s="15" t="s">
         <v>214</v>
       </c>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="6"/>
+    </row>
+    <row r="85" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R85" s="7"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="8"/>
+      <c r="X85" s="9"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="8"/>
+      <c r="AB85" s="8"/>
+      <c r="AC85" s="8"/>
+      <c r="AD85" s="8"/>
+      <c r="AE85" s="8"/>
+      <c r="AF85" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AP3:AV3"/>
+    <mergeCell ref="AQ3:AW3"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="AH3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\python-intensivo-zero2hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EF39C4-2C31-4521-9D5C-4B7BD4A9821C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A742ED3F-1AA1-4BFF-9DC2-710AABBF6C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="265">
   <si>
     <t>Operaciones</t>
   </si>
@@ -2058,6 +2058,36 @@
   </si>
   <si>
     <t>Data frames</t>
+  </si>
+  <si>
+    <t>head(df, n)</t>
+  </si>
+  <si>
+    <t>str(df)</t>
+  </si>
+  <si>
+    <t>names(df)</t>
+  </si>
+  <si>
+    <t>Da la estructura general del dataframe</t>
+  </si>
+  <si>
+    <t>Muestra los nombres de las columnas</t>
+  </si>
+  <si>
+    <t>rownames(df), colnames(df)</t>
+  </si>
+  <si>
+    <t>nrow(df), ncol(df)</t>
+  </si>
+  <si>
+    <t>dim(df)</t>
+  </si>
+  <si>
+    <t>Muestra el número de filas y columnas del dataframe</t>
+  </si>
+  <si>
+    <t>tail(df, n)</t>
   </si>
 </sst>
 </file>
@@ -2214,8 +2244,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2225,19 +2267,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2554,2680 +2583,1545 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
   <dimension ref="B2:AW85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AL1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BA3" sqref="BA3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AG1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="J3" s="1" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="J3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="3"/>
-      <c r="R3" s="1" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="R3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="3"/>
-      <c r="Z3" s="1" t="s">
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="15"/>
+      <c r="Z3" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="3"/>
-      <c r="AH3" s="1" t="s">
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="15"/>
+      <c r="AH3" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="3"/>
-      <c r="AQ3" s="1" t="s">
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="15"/>
+      <c r="AQ3" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="3"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="15"/>
     </row>
     <row r="4" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="6"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="6"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="6"/>
+      <c r="B4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="1"/>
+      <c r="X4" s="2"/>
+      <c r="Z4" s="1"/>
+      <c r="AF4" s="2"/>
+      <c r="AH4" s="1"/>
+      <c r="AO4" s="2"/>
     </row>
     <row r="5" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="J5" s="4" t="s">
+      <c r="H5" s="2"/>
+      <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="R5" s="4" t="s">
+      <c r="P5" s="2"/>
+      <c r="R5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="6"/>
-      <c r="Z5" s="4" t="s">
+      <c r="X5" s="2"/>
+      <c r="Z5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="6"/>
-      <c r="AH5" s="4" t="s">
+      <c r="AF5" s="2"/>
+      <c r="AH5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="6"/>
+      <c r="AO5" s="2"/>
+      <c r="AQ5" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="6" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5" t="s">
+      <c r="H6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="10" t="s">
+      <c r="P6" s="2"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="6"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="5" t="s">
+      <c r="X6" s="2"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" t="s">
         <v>142</v>
       </c>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="6"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="5" t="s">
+      <c r="AF6" s="2"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" t="s">
         <v>222</v>
       </c>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5" t="s">
+      <c r="AK6" t="s">
         <v>221</v>
       </c>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="6"/>
+      <c r="AO6" s="2"/>
+      <c r="AQ6" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="7" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="H7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="10" t="s">
+      <c r="P7" s="2"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="6"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="5" t="s">
+      <c r="X7" s="2"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" t="s">
         <v>143</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AB7" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AC7" t="s">
         <v>149</v>
       </c>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="6"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5" t="s">
+      <c r="AF7" s="2"/>
+      <c r="AH7" s="1"/>
+      <c r="AJ7" t="s">
         <v>223</v>
       </c>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="6"/>
+      <c r="AO7" s="2"/>
+      <c r="AQ7" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="8" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="J8" s="4" t="s">
+      <c r="H8" s="2"/>
+      <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="10" t="s">
+      <c r="P8" s="2"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="6"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="5" t="s">
+      <c r="X8" s="2"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" t="s">
         <v>145</v>
       </c>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="6"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="5" t="s">
+      <c r="AF8" s="2"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" t="s">
         <v>219</v>
       </c>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="6"/>
+      <c r="AO8" s="2"/>
+      <c r="AR8" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="9" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5" t="s">
+      <c r="H9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="5" t="s">
+      <c r="P9" s="2"/>
+      <c r="R9" s="1"/>
+      <c r="S9" t="s">
         <v>68</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="6"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="5" t="s">
+      <c r="X9" s="2"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" t="s">
         <v>144</v>
       </c>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="6"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="5" t="s">
+      <c r="AF9" s="2"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" t="s">
         <v>220</v>
       </c>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="6"/>
+      <c r="AO9" s="2"/>
+      <c r="AQ9" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="10" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5" t="s">
+      <c r="H10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="5" t="s">
+      <c r="P10" s="2"/>
+      <c r="R10" s="1"/>
+      <c r="S10" t="s">
         <v>70</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="6"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="5" t="s">
+      <c r="X10" s="2"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" t="s">
         <v>150</v>
       </c>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="6"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="5" t="s">
+      <c r="AF10" s="2"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" t="s">
         <v>226</v>
       </c>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="6"/>
+      <c r="AO10" s="2"/>
+      <c r="AR10" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="11" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
+      <c r="H11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="L11" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="5" t="s">
+      <c r="P11" s="2"/>
+      <c r="R11" s="1"/>
+      <c r="S11" t="s">
         <v>69</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5" t="s">
+      <c r="U11" t="s">
         <v>71</v>
       </c>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="6"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5" t="s">
+      <c r="X11" s="2"/>
+      <c r="Z11" s="1"/>
+      <c r="AB11" t="s">
         <v>151</v>
       </c>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="6"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5" t="s">
+      <c r="AF11" s="2"/>
+      <c r="AH11" s="1"/>
+      <c r="AJ11" t="s">
         <v>227</v>
       </c>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="6"/>
+      <c r="AO11" s="2"/>
+      <c r="AQ11" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="12" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5" t="s">
+      <c r="H12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="5" t="s">
+      <c r="P12" s="2"/>
+      <c r="R12" s="1"/>
+      <c r="S12" t="s">
         <v>72</v>
       </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="6"/>
-      <c r="Z12" s="4" t="s">
+      <c r="X12" s="2"/>
+      <c r="Z12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="6"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5" t="s">
+      <c r="AF12" s="2"/>
+      <c r="AH12" s="1"/>
+      <c r="AJ12" t="s">
         <v>228</v>
       </c>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="6"/>
+      <c r="AO12" s="2"/>
+      <c r="AQ12" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="13" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
+      <c r="H13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="L13" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="5" t="s">
+      <c r="P13" s="2"/>
+      <c r="R13" s="1"/>
+      <c r="S13" t="s">
         <v>73</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="6"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="5" t="s">
+      <c r="X13" s="2"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" t="s">
         <v>147</v>
       </c>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="6"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="6"/>
+      <c r="AF13" s="2"/>
+      <c r="AH13" s="1"/>
+      <c r="AO13" s="2"/>
+      <c r="AQ13" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="14" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5" t="s">
+      <c r="H14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="5" t="s">
+      <c r="P14" s="2"/>
+      <c r="R14" s="1"/>
+      <c r="S14" t="s">
         <v>74</v>
       </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="6"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="6"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="5" t="s">
+      <c r="X14" s="2"/>
+      <c r="Z14" s="1"/>
+      <c r="AF14" s="2"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" t="s">
         <v>224</v>
       </c>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="6"/>
+      <c r="AO14" s="2"/>
+      <c r="AR14" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="15" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5" t="s">
+      <c r="H15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
-      <c r="R15" s="4" t="s">
+      <c r="P15" s="2"/>
+      <c r="R15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="6"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="5" t="s">
+      <c r="X15" s="2"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" t="s">
         <v>152</v>
       </c>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="6"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5" t="s">
+      <c r="AF15" s="2"/>
+      <c r="AH15" s="1"/>
+      <c r="AJ15" t="s">
         <v>225</v>
       </c>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="6"/>
+      <c r="AO15" s="2"/>
     </row>
     <row r="16" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5" t="s">
+      <c r="H16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="5" t="s">
+      <c r="P16" s="2"/>
+      <c r="R16" s="1"/>
+      <c r="S16" t="s">
         <v>76</v>
       </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="6"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5" t="s">
+      <c r="X16" s="2"/>
+      <c r="Z16" s="1"/>
+      <c r="AB16" t="s">
         <v>153</v>
       </c>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="6"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5" t="s">
+      <c r="AF16" s="2"/>
+      <c r="AH16" s="1"/>
+      <c r="AJ16" t="s">
         <v>229</v>
       </c>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="16" t="s">
+      <c r="AM16" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="6"/>
+      <c r="AO16" s="2"/>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="J17" s="4" t="s">
+      <c r="H17" s="2"/>
+      <c r="J17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="6"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="5" t="s">
+      <c r="P17" s="2"/>
+      <c r="R17" s="1"/>
+      <c r="S17" t="s">
         <v>77</v>
       </c>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="6"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="5" t="s">
+      <c r="X17" s="2"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" t="s">
         <v>154</v>
       </c>
-      <c r="AB17" s="12" t="s">
+      <c r="AB17" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="6"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="6"/>
+      <c r="AF17" s="2"/>
+      <c r="AH17" s="1"/>
+      <c r="AO17" s="2"/>
     </row>
     <row r="18" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="5" t="s">
+      <c r="H18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="K18" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="6"/>
-      <c r="R18" s="4" t="s">
+      <c r="P18" s="2"/>
+      <c r="R18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="6"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5" t="s">
+      <c r="X18" s="2"/>
+      <c r="Z18" s="1"/>
+      <c r="AB18" t="s">
         <v>155</v>
       </c>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="6"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5" t="s">
+      <c r="AF18" s="2"/>
+      <c r="AH18" s="1"/>
+      <c r="AJ18" t="s">
         <v>230</v>
       </c>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="6"/>
+      <c r="AO18" s="2"/>
     </row>
     <row r="19" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5" t="s">
+      <c r="H19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="L19" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="6"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="10" t="s">
+      <c r="P19" s="2"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="6"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="5" t="s">
+      <c r="X19" s="2"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" t="s">
         <v>157</v>
       </c>
-      <c r="AB19" s="12" t="s">
+      <c r="AB19" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="6"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5" t="s">
+      <c r="AF19" s="2"/>
+      <c r="AH19" s="1"/>
+      <c r="AK19" t="s">
         <v>231</v>
       </c>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="6"/>
+      <c r="AO19" s="2"/>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5" t="s">
+      <c r="H20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="K20" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="6"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="10" t="s">
+      <c r="P20" s="2"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="6"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5" t="s">
+      <c r="X20" s="2"/>
+      <c r="Z20" s="1"/>
+      <c r="AB20" t="s">
         <v>158</v>
       </c>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="6"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5" t="s">
+      <c r="AF20" s="2"/>
+      <c r="AH20" s="1"/>
+      <c r="AK20" t="s">
         <v>235</v>
       </c>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="6"/>
+      <c r="AO20" s="2"/>
     </row>
     <row r="21" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5" t="s">
+      <c r="H21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="L21" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="6"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="6"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="5" t="s">
+      <c r="P21" s="2"/>
+      <c r="R21" s="1"/>
+      <c r="X21" s="2"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" t="s">
         <v>160</v>
       </c>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="6"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="6"/>
+      <c r="AF21" s="2"/>
+      <c r="AH21" s="1"/>
+      <c r="AO21" s="2"/>
     </row>
     <row r="22" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5" t="s">
+      <c r="H22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="L22" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="6"/>
-      <c r="R22" s="11" t="s">
+      <c r="P22" s="2"/>
+      <c r="R22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="6"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5" t="s">
+      <c r="X22" s="2"/>
+      <c r="Z22" s="1"/>
+      <c r="AB22" t="s">
         <v>161</v>
       </c>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="6"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5" t="s">
+      <c r="AF22" s="2"/>
+      <c r="AH22" s="1"/>
+      <c r="AJ22" t="s">
         <v>232</v>
       </c>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="6"/>
+      <c r="AO22" s="2"/>
     </row>
     <row r="23" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="J23" s="4" t="s">
+      <c r="H23" s="2"/>
+      <c r="J23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="6"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="6"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="5" t="s">
+      <c r="P23" s="2"/>
+      <c r="R23" s="1"/>
+      <c r="X23" s="2"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" t="s">
         <v>162</v>
       </c>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="6"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5" t="s">
+      <c r="AF23" s="2"/>
+      <c r="AH23" s="1"/>
+      <c r="AJ23" t="s">
         <v>233</v>
       </c>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="6"/>
+      <c r="AO23" s="2"/>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5" t="s">
+      <c r="H24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="K24" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="6"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="10" t="s">
+      <c r="P24" s="2"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="6"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5" t="s">
+      <c r="X24" s="2"/>
+      <c r="Z24" s="1"/>
+      <c r="AB24" t="s">
         <v>163</v>
       </c>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="6"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5" t="s">
+      <c r="AF24" s="2"/>
+      <c r="AH24" s="1"/>
+      <c r="AJ24" t="s">
         <v>234</v>
       </c>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="6"/>
+      <c r="AO24" s="2"/>
     </row>
     <row r="25" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5" t="s">
+      <c r="H25" s="2"/>
+      <c r="J25" s="1"/>
+      <c r="L25" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="6"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="5" t="s">
+      <c r="P25" s="2"/>
+      <c r="R25" s="1"/>
+      <c r="S25" t="s">
         <v>84</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="T25" t="s">
         <v>92</v>
       </c>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="6"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="12" t="s">
+      <c r="X25" s="2"/>
+      <c r="Z25" s="1"/>
+      <c r="AB25" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="6"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="6"/>
+      <c r="AF25" s="2"/>
+      <c r="AH25" s="1"/>
+      <c r="AO25" s="2"/>
     </row>
     <row r="26" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="J26" s="1"/>
+      <c r="L26" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="6"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="5" t="s">
+      <c r="P26" s="2"/>
+      <c r="R26" s="1"/>
+      <c r="S26" t="s">
         <v>85</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T26" t="s">
         <v>87</v>
       </c>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="6"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="6"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="5" t="s">
+      <c r="X26" s="2"/>
+      <c r="Z26" s="1"/>
+      <c r="AF26" s="2"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" t="s">
         <v>238</v>
       </c>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="6"/>
+      <c r="AO26" s="2"/>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="J27" s="4"/>
-      <c r="K27" s="5" t="s">
+      <c r="J27" s="1"/>
+      <c r="K27" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="6"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="5" t="s">
+      <c r="P27" s="2"/>
+      <c r="R27" s="1"/>
+      <c r="S27" t="s">
         <v>86</v>
       </c>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="6"/>
-      <c r="Z27" s="4" t="s">
+      <c r="X27" s="2"/>
+      <c r="Z27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="6"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5" t="s">
+      <c r="AF27" s="2"/>
+      <c r="AH27" s="1"/>
+      <c r="AJ27" t="s">
         <v>237</v>
       </c>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="6"/>
+      <c r="AO27" s="2"/>
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="6"/>
-      <c r="R28" s="4" t="s">
+      <c r="P28" s="2"/>
+      <c r="R28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="6"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="5" t="s">
+      <c r="X28" s="2"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" t="s">
         <v>166</v>
       </c>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="6"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="6"/>
+      <c r="AF28" s="2"/>
+      <c r="AH28" s="1"/>
+      <c r="AO28" s="2"/>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="J29" s="4"/>
-      <c r="K29" s="5" t="s">
+      <c r="J29" s="1"/>
+      <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="6"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="5" t="s">
+      <c r="P29" s="2"/>
+      <c r="R29" s="1"/>
+      <c r="S29" t="s">
         <v>91</v>
       </c>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="6"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5" t="s">
+      <c r="X29" s="2"/>
+      <c r="Z29" s="1"/>
+      <c r="AB29" t="s">
         <v>167</v>
       </c>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="6"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="5" t="s">
+      <c r="AF29" s="2"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" t="s">
         <v>252</v>
       </c>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="6"/>
+      <c r="AO29" s="2"/>
     </row>
     <row r="30" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="J30" s="4"/>
-      <c r="K30" s="5" t="s">
+      <c r="J30" s="1"/>
+      <c r="K30" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="6"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="5" t="s">
+      <c r="P30" s="2"/>
+      <c r="R30" s="1"/>
+      <c r="S30" t="s">
         <v>88</v>
       </c>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="6"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="5" t="s">
+      <c r="X30" s="2"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" t="s">
         <v>168</v>
       </c>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="6"/>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="5" t="s">
+      <c r="AF30" s="2"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" t="s">
         <v>253</v>
       </c>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="6"/>
+      <c r="AO30" s="2"/>
     </row>
     <row r="31" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="J31" s="4"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5" t="s">
+      <c r="J31" s="1"/>
+      <c r="L31" t="s">
         <v>48</v>
       </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="6"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="5" t="s">
+      <c r="P31" s="2"/>
+      <c r="R31" s="1"/>
+      <c r="S31" t="s">
         <v>89</v>
       </c>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="6"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5" t="s">
+      <c r="X31" s="2"/>
+      <c r="Z31" s="1"/>
+      <c r="AB31" t="s">
         <v>169</v>
       </c>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="6"/>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="6"/>
+      <c r="AF31" s="2"/>
+      <c r="AH31" s="1"/>
+      <c r="AO31" s="2"/>
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="J32" s="4"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5" t="s">
+      <c r="J32" s="1"/>
+      <c r="L32" t="s">
         <v>49</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="6"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="5" t="s">
+      <c r="P32" s="2"/>
+      <c r="R32" s="1"/>
+      <c r="S32" t="s">
         <v>90</v>
       </c>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="6"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="5" t="s">
+      <c r="X32" s="2"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" t="s">
         <v>170</v>
       </c>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="6"/>
-      <c r="AH32" s="4" t="s">
+      <c r="AF32" s="2"/>
+      <c r="AH32" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="6"/>
+      <c r="AO32" s="2"/>
     </row>
     <row r="33" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="J33" s="4"/>
-      <c r="K33" s="5" t="s">
+      <c r="J33" s="1"/>
+      <c r="K33" t="s">
         <v>50</v>
       </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="6"/>
-      <c r="R33" s="4" t="s">
+      <c r="P33" s="2"/>
+      <c r="R33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="6"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5" t="s">
+      <c r="X33" s="2"/>
+      <c r="Z33" s="1"/>
+      <c r="AB33" t="s">
         <v>171</v>
       </c>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="6"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="5" t="s">
+      <c r="AF33" s="2"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" t="s">
         <v>240</v>
       </c>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="16" t="s">
+      <c r="AK33" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="6"/>
+      <c r="AO33" s="2"/>
     </row>
     <row r="34" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="6"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="5" t="s">
+      <c r="P34" s="2"/>
+      <c r="R34" s="1"/>
+      <c r="S34" t="s">
         <v>94</v>
       </c>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="6"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="5" t="s">
+      <c r="X34" s="2"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" t="s">
         <v>172</v>
       </c>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="6"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="5" t="s">
+      <c r="AF34" s="2"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" t="s">
         <v>241</v>
       </c>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="16"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="6"/>
+      <c r="AK34" s="12"/>
+      <c r="AO34" s="2"/>
     </row>
     <row r="35" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="J35" s="4"/>
-      <c r="K35" s="5" t="s">
+      <c r="J35" s="1"/>
+      <c r="K35" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="6"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5" t="s">
+      <c r="P35" s="2"/>
+      <c r="R35" s="1"/>
+      <c r="T35" t="s">
         <v>95</v>
       </c>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="6"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5" t="s">
+      <c r="X35" s="2"/>
+      <c r="Z35" s="1"/>
+      <c r="AB35" t="s">
         <v>173</v>
       </c>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="6"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="5" t="s">
+      <c r="AF35" s="2"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" t="s">
         <v>218</v>
       </c>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="16" t="s">
+      <c r="AK35" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-      <c r="AO35" s="6"/>
+      <c r="AO35" s="2"/>
     </row>
     <row r="36" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="J36" s="4"/>
-      <c r="K36" s="5" t="s">
+      <c r="J36" s="1"/>
+      <c r="K36" t="s">
         <v>54</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="6"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="5" t="s">
+      <c r="P36" s="2"/>
+      <c r="R36" s="1"/>
+      <c r="S36" t="s">
         <v>96</v>
       </c>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="6"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="6"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="5" t="s">
+      <c r="X36" s="2"/>
+      <c r="Z36" s="1"/>
+      <c r="AF36" s="2"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" t="s">
         <v>242</v>
       </c>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="16"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="6"/>
+      <c r="AK36" s="12"/>
+      <c r="AO36" s="2"/>
     </row>
     <row r="37" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="J37" s="4"/>
-      <c r="K37" s="5" t="s">
+      <c r="J37" s="1"/>
+      <c r="K37" t="s">
         <v>55</v>
       </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="6"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5" t="s">
+      <c r="P37" s="2"/>
+      <c r="R37" s="1"/>
+      <c r="T37" t="s">
         <v>97</v>
       </c>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="6"/>
-      <c r="Z37" s="11" t="s">
+      <c r="X37" s="2"/>
+      <c r="Z37" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="6"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="5" t="s">
+      <c r="AF37" s="2"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" t="s">
         <v>218</v>
       </c>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="16" t="s">
+      <c r="AK37" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="AL37" s="5"/>
-      <c r="AM37" s="5"/>
-      <c r="AN37" s="5"/>
-      <c r="AO37" s="6"/>
+      <c r="AO37" s="2"/>
     </row>
     <row r="38" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="6"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="5" t="s">
+      <c r="P38" s="2"/>
+      <c r="R38" s="1"/>
+      <c r="S38" t="s">
         <v>98</v>
       </c>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="6"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="6"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="6"/>
+      <c r="X38" s="2"/>
+      <c r="Z38" s="1"/>
+      <c r="AF38" s="2"/>
+      <c r="AH38" s="1"/>
+      <c r="AO38" s="2"/>
     </row>
     <row r="39" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="J39" s="4"/>
-      <c r="K39" s="5" t="s">
+      <c r="J39" s="1"/>
+      <c r="K39" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="6"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="5" t="s">
+      <c r="P39" s="2"/>
+      <c r="R39" s="1"/>
+      <c r="S39" t="s">
         <v>107</v>
       </c>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="6"/>
-      <c r="Z39" s="13" t="s">
+      <c r="X39" s="2"/>
+      <c r="Z39" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="6"/>
-      <c r="AH39" s="4" t="s">
+      <c r="AF39" s="2"/>
+      <c r="AH39" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="6"/>
+      <c r="AO39" s="2"/>
     </row>
     <row r="40" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="J40" s="4"/>
-      <c r="K40" s="5" t="s">
+      <c r="J40" s="1"/>
+      <c r="K40" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="6"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5" t="s">
+      <c r="P40" s="2"/>
+      <c r="R40" s="1"/>
+      <c r="T40" t="s">
         <v>99</v>
       </c>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="6"/>
-      <c r="Z40" s="13" t="s">
+      <c r="X40" s="2"/>
+      <c r="Z40" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5" t="s">
+      <c r="AB40" t="s">
         <v>177</v>
       </c>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="6"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="6"/>
+      <c r="AF40" s="2"/>
+      <c r="AH40" s="1"/>
+      <c r="AO40" s="2"/>
     </row>
     <row r="41" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="J41" s="4"/>
-      <c r="K41" s="5" t="s">
+      <c r="J41" s="1"/>
+      <c r="K41" t="s">
         <v>59</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="6"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="5" t="s">
+      <c r="P41" s="2"/>
+      <c r="R41" s="1"/>
+      <c r="S41" t="s">
         <v>108</v>
       </c>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="6"/>
-      <c r="Z41" s="13" t="s">
+      <c r="X41" s="2"/>
+      <c r="Z41" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5" t="s">
+      <c r="AB41" t="s">
         <v>178</v>
       </c>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="6"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="5" t="s">
+      <c r="AF41" s="2"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" t="s">
         <v>247</v>
       </c>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="6"/>
+      <c r="AO41" s="2"/>
     </row>
     <row r="42" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="J42" s="4"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5" t="s">
+      <c r="J42" s="1"/>
+      <c r="L42" t="s">
         <v>60</v>
       </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="6"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5" t="s">
+      <c r="P42" s="2"/>
+      <c r="R42" s="1"/>
+      <c r="T42" t="s">
         <v>100</v>
       </c>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="6"/>
-      <c r="Z42" s="13" t="s">
+      <c r="X42" s="2"/>
+      <c r="Z42" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="6"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5" t="s">
+      <c r="AF42" s="2"/>
+      <c r="AH42" s="1"/>
+      <c r="AJ42" t="s">
         <v>248</v>
       </c>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="6"/>
+      <c r="AO42" s="2"/>
     </row>
     <row r="43" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="J43" s="4"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5" t="s">
+      <c r="J43" s="1"/>
+      <c r="L43" t="s">
         <v>62</v>
       </c>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="6"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="5" t="s">
+      <c r="P43" s="2"/>
+      <c r="R43" s="1"/>
+      <c r="S43" t="s">
         <v>101</v>
       </c>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="6"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="6"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="5" t="s">
+      <c r="X43" s="2"/>
+      <c r="Z43" s="1"/>
+      <c r="AF43" s="2"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" t="s">
         <v>249</v>
       </c>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="6"/>
+      <c r="AO43" s="2"/>
     </row>
     <row r="44" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="J44" s="4"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5" t="s">
+      <c r="J44" s="1"/>
+      <c r="L44" t="s">
         <v>61</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="6"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5" t="s">
+      <c r="P44" s="2"/>
+      <c r="R44" s="1"/>
+      <c r="T44" t="s">
         <v>102</v>
       </c>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="6"/>
-      <c r="Z44" s="4" t="s">
+      <c r="X44" s="2"/>
+      <c r="Z44" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="6"/>
-      <c r="AH44" s="4"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5" t="s">
+      <c r="AF44" s="2"/>
+      <c r="AH44" s="1"/>
+      <c r="AJ44" t="s">
         <v>250</v>
       </c>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="6"/>
+      <c r="AO44" s="2"/>
     </row>
     <row r="45" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="J45" s="7"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="9"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5" t="s">
+      <c r="J45" s="3"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="5"/>
+      <c r="R45" s="1"/>
+      <c r="T45" t="s">
         <v>103</v>
       </c>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="6"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="5" t="s">
+      <c r="X45" s="2"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" t="s">
         <v>182</v>
       </c>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="6"/>
-      <c r="AH45" s="4"/>
-      <c r="AI45" s="5" t="s">
+      <c r="AF45" s="2"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" t="s">
         <v>251</v>
       </c>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="6"/>
+      <c r="AO45" s="2"/>
     </row>
     <row r="46" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="R46" s="4"/>
-      <c r="S46" s="5" t="s">
+      <c r="R46" s="1"/>
+      <c r="S46" t="s">
         <v>104</v>
       </c>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="6"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5" t="s">
+      <c r="X46" s="2"/>
+      <c r="Z46" s="1"/>
+      <c r="AB46" t="s">
         <v>183</v>
       </c>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="6"/>
-      <c r="AH46" s="7"/>
-      <c r="AI46" s="8"/>
-      <c r="AJ46" s="8"/>
-      <c r="AK46" s="8"/>
-      <c r="AL46" s="8"/>
-      <c r="AM46" s="8"/>
-      <c r="AN46" s="8"/>
-      <c r="AO46" s="9"/>
+      <c r="AF46" s="2"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="5"/>
     </row>
     <row r="47" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="R47" s="4"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5" t="s">
+      <c r="R47" s="1"/>
+      <c r="T47" t="s">
         <v>105</v>
       </c>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="6"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="6"/>
+      <c r="X47" s="2"/>
+      <c r="Z47" s="1"/>
+      <c r="AF47" s="2"/>
     </row>
     <row r="48" spans="10:41" x14ac:dyDescent="0.25">
-      <c r="R48" s="4" t="s">
+      <c r="R48" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="6"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="14" t="s">
+      <c r="X48" s="2"/>
+      <c r="Z48" s="1"/>
+      <c r="AB48" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AC48" s="12" t="s">
+      <c r="AC48" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="6"/>
+      <c r="AF48" s="2"/>
     </row>
     <row r="49" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R49" s="4" t="s">
+      <c r="R49" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="6"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5" t="s">
+      <c r="X49" s="2"/>
+      <c r="Z49" s="1"/>
+      <c r="AB49" t="s">
         <v>184</v>
       </c>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="6"/>
+      <c r="AF49" s="2"/>
     </row>
     <row r="50" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R50" s="4"/>
-      <c r="S50" s="5" t="s">
+      <c r="R50" s="1"/>
+      <c r="S50" t="s">
         <v>109</v>
       </c>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="6"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5" t="s">
+      <c r="X50" s="2"/>
+      <c r="Z50" s="1"/>
+      <c r="AB50" t="s">
         <v>185</v>
       </c>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="6"/>
+      <c r="AF50" s="2"/>
     </row>
     <row r="51" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R51" s="4"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5" t="s">
+      <c r="R51" s="1"/>
+      <c r="T51" t="s">
         <v>110</v>
       </c>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="6"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="6"/>
+      <c r="X51" s="2"/>
+      <c r="Z51" s="1"/>
+      <c r="AF51" s="2"/>
     </row>
     <row r="52" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R52" s="4"/>
-      <c r="S52" s="5" t="s">
+      <c r="R52" s="1"/>
+      <c r="S52" t="s">
         <v>111</v>
       </c>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="6"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="5" t="s">
+      <c r="X52" s="2"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" t="s">
         <v>188</v>
       </c>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="6"/>
+      <c r="AF52" s="2"/>
     </row>
     <row r="53" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R53" s="4"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5" t="s">
+      <c r="R53" s="1"/>
+      <c r="T53" t="s">
         <v>112</v>
       </c>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="6"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5" t="s">
+      <c r="X53" s="2"/>
+      <c r="Z53" s="1"/>
+      <c r="AB53" t="s">
         <v>189</v>
       </c>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="6"/>
+      <c r="AF53" s="2"/>
     </row>
     <row r="54" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R54" s="4"/>
-      <c r="S54" s="5" t="s">
+      <c r="R54" s="1"/>
+      <c r="S54" t="s">
         <v>113</v>
       </c>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="6"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="12" t="s">
+      <c r="X54" s="2"/>
+      <c r="Z54" s="1"/>
+      <c r="AB54" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="6"/>
+      <c r="AF54" s="2"/>
     </row>
     <row r="55" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R55" s="4"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5" t="s">
+      <c r="R55" s="1"/>
+      <c r="T55" t="s">
         <v>116</v>
       </c>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="6"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="5" t="s">
+      <c r="X55" s="2"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" t="s">
         <v>191</v>
       </c>
-      <c r="AB55" s="5"/>
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
-      <c r="AF55" s="6"/>
+      <c r="AF55" s="2"/>
     </row>
     <row r="56" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R56" s="4"/>
-      <c r="S56" s="5" t="s">
+      <c r="R56" s="1"/>
+      <c r="S56" t="s">
         <v>114</v>
       </c>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="6"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="5" t="s">
+      <c r="X56" s="2"/>
+      <c r="Z56" s="1"/>
+      <c r="AB56" t="s">
         <v>194</v>
       </c>
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
-      <c r="AF56" s="6"/>
+      <c r="AF56" s="2"/>
     </row>
     <row r="57" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R57" s="4"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5" t="s">
+      <c r="R57" s="1"/>
+      <c r="T57" t="s">
         <v>115</v>
       </c>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="6"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5" t="s">
+      <c r="X57" s="2"/>
+      <c r="Z57" s="1"/>
+      <c r="AB57" t="s">
         <v>195</v>
       </c>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-      <c r="AF57" s="6"/>
+      <c r="AF57" s="2"/>
     </row>
     <row r="58" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R58" s="11" t="s">
+      <c r="R58" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="6"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-      <c r="AF58" s="6"/>
+      <c r="X58" s="2"/>
+      <c r="Z58" s="1"/>
+      <c r="AF58" s="2"/>
     </row>
     <row r="59" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R59" s="4" t="s">
+      <c r="R59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="6"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="14" t="s">
+      <c r="X59" s="2"/>
+      <c r="Z59" s="1"/>
+      <c r="AB59" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
-      <c r="AF59" s="6"/>
+      <c r="AF59" s="2"/>
     </row>
     <row r="60" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R60" s="4"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="6"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5" t="s">
+      <c r="R60" s="1"/>
+      <c r="X60" s="2"/>
+      <c r="Z60" s="1"/>
+      <c r="AB60" t="s">
         <v>193</v>
       </c>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
-      <c r="AF60" s="6"/>
+      <c r="AF60" s="2"/>
     </row>
     <row r="61" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R61" s="4" t="s">
+      <c r="R61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="6"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="5"/>
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="5"/>
-      <c r="AE61" s="5"/>
-      <c r="AF61" s="6"/>
+      <c r="X61" s="2"/>
+      <c r="Z61" s="1"/>
+      <c r="AF61" s="2"/>
     </row>
     <row r="62" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R62" s="4"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="6"/>
-      <c r="Z62" s="4" t="s">
+      <c r="R62" s="1"/>
+      <c r="X62" s="2"/>
+      <c r="Z62" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
-      <c r="AF62" s="6"/>
+      <c r="AF62" s="2"/>
     </row>
     <row r="63" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R63" s="4"/>
-      <c r="S63" s="5" t="s">
+      <c r="R63" s="1"/>
+      <c r="S63" t="s">
         <v>121</v>
       </c>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="6"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="5" t="s">
+      <c r="X63" s="2"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" t="s">
         <v>197</v>
       </c>
-      <c r="AB63" s="5"/>
-      <c r="AC63" s="5"/>
-      <c r="AD63" s="5"/>
-      <c r="AE63" s="5"/>
-      <c r="AF63" s="6"/>
+      <c r="AF63" s="2"/>
     </row>
     <row r="64" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R64" s="4"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5" t="s">
+      <c r="R64" s="1"/>
+      <c r="T64" t="s">
         <v>123</v>
       </c>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="6"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5" t="s">
+      <c r="X64" s="2"/>
+      <c r="Z64" s="1"/>
+      <c r="AB64" t="s">
         <v>200</v>
       </c>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
-      <c r="AF64" s="6"/>
+      <c r="AF64" s="2"/>
     </row>
     <row r="65" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R65" s="4"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5" t="s">
+      <c r="R65" s="1"/>
+      <c r="T65" t="s">
         <v>122</v>
       </c>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="6"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="5"/>
-      <c r="AB65" s="5" t="s">
+      <c r="X65" s="2"/>
+      <c r="Z65" s="1"/>
+      <c r="AB65" t="s">
         <v>198</v>
       </c>
-      <c r="AC65" s="5"/>
-      <c r="AD65" s="5"/>
-      <c r="AE65" s="5"/>
-      <c r="AF65" s="6"/>
+      <c r="AF65" s="2"/>
     </row>
     <row r="66" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R66" s="4"/>
-      <c r="S66" s="5" t="s">
+      <c r="R66" s="1"/>
+      <c r="S66" t="s">
         <v>124</v>
       </c>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="6"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="5" t="s">
+      <c r="X66" s="2"/>
+      <c r="Z66" s="1"/>
+      <c r="AB66" t="s">
         <v>199</v>
       </c>
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5"/>
-      <c r="AF66" s="6"/>
+      <c r="AF66" s="2"/>
     </row>
     <row r="67" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R67" s="4"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5" t="s">
+      <c r="R67" s="1"/>
+      <c r="T67" t="s">
         <v>125</v>
       </c>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="6"/>
-      <c r="Z67" s="4"/>
-      <c r="AA67" s="5"/>
-      <c r="AB67" s="5"/>
-      <c r="AC67" s="5"/>
-      <c r="AD67" s="5"/>
-      <c r="AE67" s="5"/>
-      <c r="AF67" s="6"/>
+      <c r="X67" s="2"/>
+      <c r="Z67" s="1"/>
+      <c r="AF67" s="2"/>
     </row>
     <row r="68" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R68" s="4"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="6"/>
-      <c r="Z68" s="4"/>
-      <c r="AA68" s="5"/>
-      <c r="AB68" s="14" t="s">
+      <c r="R68" s="1"/>
+      <c r="X68" s="2"/>
+      <c r="Z68" s="1"/>
+      <c r="AB68" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AC68" s="5"/>
-      <c r="AD68" s="5"/>
-      <c r="AE68" s="5"/>
-      <c r="AF68" s="6"/>
+      <c r="AF68" s="2"/>
     </row>
     <row r="69" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R69" s="4" t="s">
+      <c r="R69" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="6"/>
-      <c r="Z69" s="4"/>
-      <c r="AA69" s="5"/>
-      <c r="AB69" s="5" t="s">
+      <c r="X69" s="2"/>
+      <c r="Z69" s="1"/>
+      <c r="AB69" t="s">
         <v>202</v>
       </c>
-      <c r="AC69" s="5"/>
-      <c r="AD69" s="5"/>
-      <c r="AE69" s="5"/>
-      <c r="AF69" s="6"/>
+      <c r="AF69" s="2"/>
     </row>
     <row r="70" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R70" s="4"/>
-      <c r="S70" s="10" t="s">
+      <c r="R70" s="1"/>
+      <c r="S70" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="6"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="5"/>
-      <c r="AB70" s="5"/>
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="5"/>
-      <c r="AE70" s="5"/>
-      <c r="AF70" s="6"/>
+      <c r="X70" s="2"/>
+      <c r="Z70" s="1"/>
+      <c r="AF70" s="2"/>
     </row>
     <row r="71" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R71" s="4"/>
-      <c r="S71" s="5" t="s">
+      <c r="R71" s="1"/>
+      <c r="S71" t="s">
         <v>128</v>
       </c>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="6"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="5" t="s">
+      <c r="X71" s="2"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" t="s">
         <v>203</v>
       </c>
-      <c r="AB71" s="5"/>
-      <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
-      <c r="AE71" s="5"/>
-      <c r="AF71" s="6"/>
+      <c r="AF71" s="2"/>
     </row>
     <row r="72" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R72" s="4"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="6"/>
-      <c r="Z72" s="4"/>
-      <c r="AA72" s="5" t="s">
+      <c r="R72" s="1"/>
+      <c r="X72" s="2"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" t="s">
         <v>204</v>
       </c>
-      <c r="AB72" s="5"/>
-      <c r="AC72" s="5"/>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="5"/>
-      <c r="AF72" s="6"/>
+      <c r="AF72" s="2"/>
     </row>
     <row r="73" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R73" s="4"/>
-      <c r="S73" s="5" t="s">
+      <c r="R73" s="1"/>
+      <c r="S73" t="s">
         <v>129</v>
       </c>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="6"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="5"/>
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
-      <c r="AE73" s="5"/>
-      <c r="AF73" s="6"/>
+      <c r="X73" s="2"/>
+      <c r="Z73" s="1"/>
+      <c r="AF73" s="2"/>
     </row>
     <row r="74" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R74" s="4"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5" t="s">
+      <c r="R74" s="1"/>
+      <c r="T74" t="s">
         <v>130</v>
       </c>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="5"/>
-      <c r="X74" s="6"/>
-      <c r="Z74" s="4" t="s">
+      <c r="X74" s="2"/>
+      <c r="Z74" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AA74" s="5"/>
-      <c r="AB74" s="5"/>
-      <c r="AC74" s="5"/>
-      <c r="AD74" s="5"/>
-      <c r="AE74" s="5"/>
-      <c r="AF74" s="6"/>
+      <c r="AF74" s="2"/>
     </row>
     <row r="75" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R75" s="4"/>
-      <c r="S75" s="5" t="s">
+      <c r="R75" s="1"/>
+      <c r="S75" t="s">
         <v>131</v>
       </c>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="6"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="5" t="s">
+      <c r="X75" s="2"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" t="s">
         <v>210</v>
       </c>
-      <c r="AB75" s="5"/>
-      <c r="AC75" s="5"/>
-      <c r="AD75" s="5"/>
-      <c r="AE75" s="5"/>
-      <c r="AF75" s="6"/>
+      <c r="AF75" s="2"/>
     </row>
     <row r="76" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R76" s="4"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5" t="s">
+      <c r="R76" s="1"/>
+      <c r="T76" t="s">
         <v>132</v>
       </c>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="6"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5" t="s">
+      <c r="X76" s="2"/>
+      <c r="Z76" s="1"/>
+      <c r="AB76" t="s">
         <v>206</v>
       </c>
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="5"/>
-      <c r="AF76" s="6"/>
+      <c r="AF76" s="2"/>
     </row>
     <row r="77" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R77" s="4"/>
-      <c r="S77" s="5" t="s">
+      <c r="R77" s="1"/>
+      <c r="S77" t="s">
         <v>133</v>
       </c>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="6"/>
-      <c r="Z77" s="4"/>
-      <c r="AA77" s="5" t="s">
+      <c r="X77" s="2"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" t="s">
         <v>211</v>
       </c>
-      <c r="AB77" s="5"/>
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5"/>
-      <c r="AF77" s="6"/>
+      <c r="AF77" s="2"/>
     </row>
     <row r="78" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R78" s="4"/>
-      <c r="S78" s="5" t="s">
+      <c r="R78" s="1"/>
+      <c r="S78" t="s">
         <v>134</v>
       </c>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="6"/>
-      <c r="Z78" s="4"/>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5" t="s">
+      <c r="X78" s="2"/>
+      <c r="Z78" s="1"/>
+      <c r="AB78" t="s">
         <v>207</v>
       </c>
-      <c r="AC78" s="5"/>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="5"/>
-      <c r="AF78" s="6"/>
+      <c r="AF78" s="2"/>
     </row>
     <row r="79" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R79" s="4"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5" t="s">
+      <c r="R79" s="1"/>
+      <c r="T79" t="s">
         <v>136</v>
       </c>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-      <c r="X79" s="6"/>
-      <c r="Z79" s="4"/>
-      <c r="AA79" s="5" t="s">
+      <c r="X79" s="2"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" t="s">
         <v>212</v>
       </c>
-      <c r="AB79" s="5"/>
-      <c r="AC79" s="5"/>
-      <c r="AD79" s="5"/>
-      <c r="AE79" s="5"/>
-      <c r="AF79" s="6"/>
+      <c r="AF79" s="2"/>
     </row>
     <row r="80" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R80" s="4"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5" t="s">
+      <c r="R80" s="1"/>
+      <c r="T80" t="s">
         <v>135</v>
       </c>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-      <c r="X80" s="6"/>
-      <c r="Z80" s="4"/>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5" t="s">
+      <c r="X80" s="2"/>
+      <c r="Z80" s="1"/>
+      <c r="AB80" t="s">
         <v>208</v>
       </c>
-      <c r="AC80" s="5"/>
-      <c r="AD80" s="5"/>
-      <c r="AE80" s="5"/>
-      <c r="AF80" s="6"/>
+      <c r="AF80" s="2"/>
     </row>
     <row r="81" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R81" s="4"/>
-      <c r="S81" s="5" t="s">
+      <c r="R81" s="1"/>
+      <c r="S81" t="s">
         <v>137</v>
       </c>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="6"/>
-      <c r="Z81" s="4"/>
-      <c r="AA81" s="5" t="s">
+      <c r="X81" s="2"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" t="s">
         <v>213</v>
       </c>
-      <c r="AB81" s="5"/>
-      <c r="AC81" s="5"/>
-      <c r="AD81" s="5"/>
-      <c r="AE81" s="5"/>
-      <c r="AF81" s="6"/>
+      <c r="AF81" s="2"/>
     </row>
     <row r="82" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R82" s="4"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5" t="s">
+      <c r="R82" s="1"/>
+      <c r="T82" t="s">
         <v>138</v>
       </c>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="6"/>
-      <c r="Z82" s="4"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5" t="s">
+      <c r="X82" s="2"/>
+      <c r="Z82" s="1"/>
+      <c r="AB82" t="s">
         <v>209</v>
       </c>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5"/>
-      <c r="AF82" s="6"/>
+      <c r="AF82" s="2"/>
     </row>
     <row r="83" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R83" s="4"/>
-      <c r="S83" s="5" t="s">
+      <c r="R83" s="1"/>
+      <c r="S83" t="s">
         <v>139</v>
       </c>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="6"/>
-      <c r="Z83" s="4"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
-      <c r="AF83" s="6"/>
+      <c r="X83" s="2"/>
+      <c r="Z83" s="1"/>
+      <c r="AF83" s="2"/>
     </row>
     <row r="84" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R84" s="4"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5" t="s">
+      <c r="R84" s="1"/>
+      <c r="T84" t="s">
         <v>140</v>
       </c>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-      <c r="X84" s="6"/>
-      <c r="Z84" s="15" t="s">
+      <c r="X84" s="2"/>
+      <c r="Z84" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5"/>
-      <c r="AF84" s="6"/>
+      <c r="AF84" s="2"/>
     </row>
     <row r="85" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R85" s="7"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
-      <c r="W85" s="8"/>
-      <c r="X85" s="9"/>
-      <c r="Z85" s="7"/>
-      <c r="AA85" s="8"/>
-      <c r="AB85" s="8"/>
-      <c r="AC85" s="8"/>
-      <c r="AD85" s="8"/>
-      <c r="AE85" s="8"/>
-      <c r="AF85" s="9"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="5"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="4"/>
+      <c r="AB85" s="4"/>
+      <c r="AC85" s="4"/>
+      <c r="AD85" s="4"/>
+      <c r="AE85" s="4"/>
+      <c r="AF85" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\python-intensivo-zero2hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A742ED3F-1AA1-4BFF-9DC2-710AABBF6C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB14C2C-4353-442A-8026-22C49DE0DD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="270">
   <si>
     <t>Operaciones</t>
   </si>
@@ -2088,6 +2088,44 @@
   </si>
   <si>
     <t>tail(df, n)</t>
+  </si>
+  <si>
+    <t>df$columna</t>
+  </si>
+  <si>
+    <t>Acceder a una columna de un dataframe</t>
+  </si>
+  <si>
+    <t>df[n,m], df[condicion_logica, ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Recordar que la condicion lógica devuelve el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">numero de posición </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>que cumple</t>
+    </r>
+  </si>
+  <si>
+    <t>dicha condición</t>
   </si>
 </sst>
 </file>
@@ -2584,7 +2622,7 @@
   <dimension ref="B2:AW85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AG1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8"/>
+      <selection activeCell="AR20" sqref="AR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,6 +3019,9 @@
         <v>225</v>
       </c>
       <c r="AO15" s="2"/>
+      <c r="AQ15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="16" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -3010,8 +3051,11 @@
         <v>236</v>
       </c>
       <c r="AO16" s="2"/>
-    </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="AR16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" t="s">
         <v>12</v>
@@ -3036,8 +3080,11 @@
       <c r="AF17" s="2"/>
       <c r="AH17" s="1"/>
       <c r="AO17" s="2"/>
-    </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="AQ17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3061,8 +3108,11 @@
         <v>230</v>
       </c>
       <c r="AO18" s="2"/>
-    </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="AR18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>14</v>
@@ -3091,8 +3141,11 @@
         <v>231</v>
       </c>
       <c r="AO19" s="2"/>
-    </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="AR19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>15</v>
@@ -3119,7 +3172,7 @@
       </c>
       <c r="AO20" s="2"/>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" t="s">
         <v>16</v>
@@ -3140,7 +3193,7 @@
       <c r="AH21" s="1"/>
       <c r="AO21" s="2"/>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>17</v>
@@ -3166,7 +3219,7 @@
       </c>
       <c r="AO22" s="2"/>
     </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>18</v>
@@ -3189,7 +3242,7 @@
       </c>
       <c r="AO23" s="2"/>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -3215,7 +3268,7 @@
       </c>
       <c r="AO24" s="2"/>
     </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>51</v>
@@ -3242,7 +3295,7 @@
       <c r="AH25" s="1"/>
       <c r="AO25" s="2"/>
     </row>
-    <row r="26" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3271,7 +3324,7 @@
       </c>
       <c r="AO26" s="2"/>
     </row>
-    <row r="27" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:44" x14ac:dyDescent="0.25">
       <c r="J27" s="1"/>
       <c r="K27" t="s">
         <v>43</v>
@@ -3292,7 +3345,7 @@
       </c>
       <c r="AO27" s="2"/>
     </row>
-    <row r="28" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:44" x14ac:dyDescent="0.25">
       <c r="J28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3309,7 +3362,7 @@
       <c r="AH28" s="1"/>
       <c r="AO28" s="2"/>
     </row>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:44" x14ac:dyDescent="0.25">
       <c r="J29" s="1"/>
       <c r="K29" t="s">
         <v>46</v>
@@ -3331,7 +3384,7 @@
       </c>
       <c r="AO29" s="2"/>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:44" x14ac:dyDescent="0.25">
       <c r="J30" s="1"/>
       <c r="K30" t="s">
         <v>47</v>
@@ -3353,7 +3406,7 @@
       </c>
       <c r="AO30" s="2"/>
     </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:44" x14ac:dyDescent="0.25">
       <c r="J31" s="1"/>
       <c r="L31" t="s">
         <v>48</v>
@@ -3372,7 +3425,7 @@
       <c r="AH31" s="1"/>
       <c r="AO31" s="2"/>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:44" x14ac:dyDescent="0.25">
       <c r="J32" s="1"/>
       <c r="L32" t="s">
         <v>49</v>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\python-intensivo-zero2hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB14C2C-4353-442A-8026-22C49DE0DD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEC3ED5-C6EE-4A0B-A7D7-80288948F9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -512,6 +512,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AT25" authorId="0" shapeId="0" xr:uid="{E7B694DF-6829-4DD9-A4E6-A9987BFF07A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Separaciones entre columnas, qué carácter es</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AI26" authorId="0" shapeId="0" xr:uid="{C7930BAC-82F7-4319-8FB6-F88A87E2F9D1}">
       <text>
         <r>
@@ -534,6 +558,54 @@
           <t xml:space="preserve">
 "gráfico" hace referencia a un gráfico que se guarda en una variable, así como si fuera "x"
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT26" authorId="0" shapeId="0" xr:uid="{5019D787-41F6-4ECB-8D8A-CE76D3F7DB59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Para especificar el signo que separa la parte entera de la decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT27" authorId="0" shapeId="0" xr:uid="{E4F989EE-F1B9-4597-8D1C-FB95C7F65803}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Permite asignar el nombre a las columnas en caso de que el dataste no los tuviera</t>
         </r>
       </text>
     </comment>
@@ -738,7 +810,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="289">
   <si>
     <t>Operaciones</t>
   </si>
@@ -2126,6 +2198,63 @@
   </si>
   <si>
     <t>dicha condición</t>
+  </si>
+  <si>
+    <t>Cargar datos</t>
+  </si>
+  <si>
+    <t>read.table("../data/archivo")</t>
+  </si>
+  <si>
+    <t>Argumentos</t>
+  </si>
+  <si>
+    <t>header=T/F</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>col.names=c( )</t>
+  </si>
+  <si>
+    <t>stringsAsFactors=T/F</t>
+  </si>
+  <si>
+    <t>Guardar y cargar datos</t>
+  </si>
+  <si>
+    <t>read.csv()</t>
+  </si>
+  <si>
+    <t>read.xls() o read.xlsx()</t>
+  </si>
+  <si>
+    <t>read.mtb</t>
+  </si>
+  <si>
+    <t>Importar datos Minitab+</t>
+  </si>
+  <si>
+    <t>read.spss()</t>
+  </si>
+  <si>
+    <t>Importar tabla de datos SPSS</t>
+  </si>
+  <si>
+    <t>Se necesita el paquete xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exportar </t>
+  </si>
+  <si>
+    <t>write.table(df, file="../data/nombre.txt")</t>
+  </si>
+  <si>
+    <t>Construyendo dataframes</t>
   </si>
 </sst>
 </file>
@@ -2621,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
   <dimension ref="B2:AW85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AG1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AR20" sqref="AR20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AG21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AR43" sqref="AR43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3055,7 +3184,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" t="s">
         <v>12</v>
@@ -3084,7 +3213,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3112,7 +3241,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>14</v>
@@ -3145,7 +3274,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>15</v>
@@ -3172,7 +3301,7 @@
       </c>
       <c r="AO20" s="2"/>
     </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" t="s">
         <v>16</v>
@@ -3192,8 +3321,11 @@
       <c r="AF21" s="2"/>
       <c r="AH21" s="1"/>
       <c r="AO21" s="2"/>
-    </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AQ21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>17</v>
@@ -3218,8 +3350,11 @@
         <v>232</v>
       </c>
       <c r="AO22" s="2"/>
-    </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AR22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>18</v>
@@ -3241,8 +3376,11 @@
         <v>233</v>
       </c>
       <c r="AO23" s="2"/>
-    </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AS23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -3267,8 +3405,11 @@
         <v>234</v>
       </c>
       <c r="AO24" s="2"/>
-    </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AT24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>51</v>
@@ -3294,8 +3435,11 @@
       <c r="AF25" s="2"/>
       <c r="AH25" s="1"/>
       <c r="AO25" s="2"/>
-    </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AT25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3323,8 +3467,11 @@
         <v>238</v>
       </c>
       <c r="AO26" s="2"/>
-    </row>
-    <row r="27" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AT26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" x14ac:dyDescent="0.25">
       <c r="J27" s="1"/>
       <c r="K27" t="s">
         <v>43</v>
@@ -3344,8 +3491,11 @@
         <v>237</v>
       </c>
       <c r="AO27" s="2"/>
-    </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AT27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.25">
       <c r="J28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3361,8 +3511,11 @@
       <c r="AF28" s="2"/>
       <c r="AH28" s="1"/>
       <c r="AO28" s="2"/>
-    </row>
-    <row r="29" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AT28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.25">
       <c r="J29" s="1"/>
       <c r="K29" t="s">
         <v>46</v>
@@ -3384,7 +3537,7 @@
       </c>
       <c r="AO29" s="2"/>
     </row>
-    <row r="30" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:46" x14ac:dyDescent="0.25">
       <c r="J30" s="1"/>
       <c r="K30" t="s">
         <v>47</v>
@@ -3405,8 +3558,11 @@
         <v>253</v>
       </c>
       <c r="AO30" s="2"/>
-    </row>
-    <row r="31" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AQ30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="2:46" x14ac:dyDescent="0.25">
       <c r="J31" s="1"/>
       <c r="L31" t="s">
         <v>48</v>
@@ -3424,8 +3580,11 @@
       <c r="AF31" s="2"/>
       <c r="AH31" s="1"/>
       <c r="AO31" s="2"/>
-    </row>
-    <row r="32" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AR31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="2:46" x14ac:dyDescent="0.25">
       <c r="J32" s="1"/>
       <c r="L32" t="s">
         <v>49</v>
@@ -3445,8 +3604,11 @@
         <v>239</v>
       </c>
       <c r="AO32" s="2"/>
-    </row>
-    <row r="33" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="AR32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="10:45" x14ac:dyDescent="0.25">
       <c r="J33" s="1"/>
       <c r="K33" t="s">
         <v>50</v>
@@ -3469,8 +3631,11 @@
         <v>245</v>
       </c>
       <c r="AO33" s="2"/>
-    </row>
-    <row r="34" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="AS33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="10:45" x14ac:dyDescent="0.25">
       <c r="J34" s="1" t="s">
         <v>52</v>
       </c>
@@ -3491,8 +3656,11 @@
       </c>
       <c r="AK34" s="12"/>
       <c r="AO34" s="2"/>
-    </row>
-    <row r="35" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="AR34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="10:45" x14ac:dyDescent="0.25">
       <c r="J35" s="1"/>
       <c r="K35" t="s">
         <v>53</v>
@@ -3516,8 +3684,11 @@
         <v>243</v>
       </c>
       <c r="AO35" s="2"/>
-    </row>
-    <row r="36" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="AS35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="10:45" x14ac:dyDescent="0.25">
       <c r="J36" s="1"/>
       <c r="K36" t="s">
         <v>54</v>
@@ -3536,8 +3707,11 @@
       </c>
       <c r="AK36" s="12"/>
       <c r="AO36" s="2"/>
-    </row>
-    <row r="37" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="AR36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="10:45" x14ac:dyDescent="0.25">
       <c r="J37" s="1"/>
       <c r="K37" t="s">
         <v>55</v>
@@ -3560,8 +3734,11 @@
         <v>244</v>
       </c>
       <c r="AO37" s="2"/>
-    </row>
-    <row r="38" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="AS37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="10:45" x14ac:dyDescent="0.25">
       <c r="J38" s="1" t="s">
         <v>56</v>
       </c>
@@ -3575,8 +3752,11 @@
       <c r="AF38" s="2"/>
       <c r="AH38" s="1"/>
       <c r="AO38" s="2"/>
-    </row>
-    <row r="39" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="AQ38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="10:45" x14ac:dyDescent="0.25">
       <c r="J39" s="1"/>
       <c r="K39" t="s">
         <v>57</v>
@@ -3595,8 +3775,11 @@
         <v>246</v>
       </c>
       <c r="AO39" s="2"/>
-    </row>
-    <row r="40" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="AR39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="10:45" x14ac:dyDescent="0.25">
       <c r="J40" s="1"/>
       <c r="K40" t="s">
         <v>58</v>
@@ -3617,7 +3800,7 @@
       <c r="AH40" s="1"/>
       <c r="AO40" s="2"/>
     </row>
-    <row r="41" spans="10:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:45" x14ac:dyDescent="0.25">
       <c r="J41" s="1"/>
       <c r="K41" t="s">
         <v>59</v>
@@ -3640,8 +3823,11 @@
         <v>247</v>
       </c>
       <c r="AO41" s="2"/>
-    </row>
-    <row r="42" spans="10:41" x14ac:dyDescent="0.25">
+      <c r="AQ41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="10:45" x14ac:dyDescent="0.25">
       <c r="J42" s="1"/>
       <c r="L42" t="s">
         <v>60</v>
@@ -3662,7 +3848,7 @@
       </c>
       <c r="AO42" s="2"/>
     </row>
-    <row r="43" spans="10:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:45" x14ac:dyDescent="0.25">
       <c r="J43" s="1"/>
       <c r="L43" t="s">
         <v>62</v>
@@ -3681,7 +3867,7 @@
       </c>
       <c r="AO43" s="2"/>
     </row>
-    <row r="44" spans="10:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:45" x14ac:dyDescent="0.25">
       <c r="J44" s="1"/>
       <c r="L44" t="s">
         <v>61</v>
@@ -3702,7 +3888,7 @@
       </c>
       <c r="AO44" s="2"/>
     </row>
-    <row r="45" spans="10:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:45" x14ac:dyDescent="0.25">
       <c r="J45" s="3"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -3726,7 +3912,7 @@
       </c>
       <c r="AO45" s="2"/>
     </row>
-    <row r="46" spans="10:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="10:45" x14ac:dyDescent="0.25">
       <c r="R46" s="1"/>
       <c r="S46" t="s">
         <v>104</v>
@@ -3746,7 +3932,7 @@
       <c r="AN46" s="4"/>
       <c r="AO46" s="5"/>
     </row>
-    <row r="47" spans="10:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="10:45" x14ac:dyDescent="0.25">
       <c r="R47" s="1"/>
       <c r="T47" t="s">
         <v>105</v>
@@ -3755,7 +3941,7 @@
       <c r="Z47" s="1"/>
       <c r="AF47" s="2"/>
     </row>
-    <row r="48" spans="10:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:45" x14ac:dyDescent="0.25">
       <c r="R48" s="1" t="s">
         <v>106</v>
       </c>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\python-intensivo-zero2hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEC3ED5-C6EE-4A0B-A7D7-80288948F9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6712727-1201-4298-80A0-892C3F3CADDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -251,6 +251,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AZ11" authorId="0" shapeId="0" xr:uid="{516C7692-BAAE-44D8-BC1C-CD41C36C1D86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Muestra el primer registro</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S14" authorId="0" shapeId="0" xr:uid="{F2ADE204-B0E2-4329-B53B-8D221577BC97}">
       <text>
         <r>
@@ -810,7 +834,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="341">
   <si>
     <t>Operaciones</t>
   </si>
@@ -2129,9 +2153,6 @@
     <t>plt.xlim(a,b)</t>
   </si>
   <si>
-    <t>Data frames</t>
-  </si>
-  <si>
     <t>head(df, n)</t>
   </si>
   <si>
@@ -2255,6 +2276,666 @@
   </si>
   <si>
     <t>Construyendo dataframes</t>
+  </si>
+  <si>
+    <t>Data frames ( R )</t>
+  </si>
+  <si>
+    <t>Data frames ( Python )</t>
+  </si>
+  <si>
+    <t>Cargar dataframes en Python</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pandas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pd</t>
+    </r>
+  </si>
+  <si>
+    <t>df.head(), df.tail()</t>
+  </si>
+  <si>
+    <t>Para acceder a un único registro, en este caso al primero</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Para acceder por </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y recordar que en Python se empieza</t>
+    </r>
+  </si>
+  <si>
+    <t>en cero</t>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loc[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Para acceder a un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>conjunto de elementos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, desde el elemento con</t>
+    </r>
+  </si>
+  <si>
+    <t>identificador 0 hasta el 10 (python cuenta desde 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los elementos del 0 al 20 pero mostrados unicamente los que van de </t>
+  </si>
+  <si>
+    <t>2 en 2</t>
+  </si>
+  <si>
+    <r>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>df[0:10:2]</t>
+  </si>
+  <si>
+    <t>Acceder a la columna llamada "Density" de un df</t>
+  </si>
+  <si>
+    <t>df.Density</t>
+  </si>
+  <si>
+    <t>Se pueden realizar funciones estadísticas con esta columna usando un "."</t>
+  </si>
+  <si>
+    <t>df.Density.describe()</t>
+  </si>
+  <si>
+    <t>.transpose()</t>
+  </si>
+  <si>
+    <t>.mean()</t>
+  </si>
+  <si>
+    <t>Cómo cargar un data frame</t>
+  </si>
+  <si>
+    <t>Dentro de los paréntesis va un diccionario</t>
+  </si>
+  <si>
+    <t>df=pd.Dataframe( { } )</t>
+  </si>
+  <si>
+    <r>
+      <t>Calcula la media por</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> renglon</t>
+    </r>
+  </si>
+  <si>
+    <t>df.mean( axis='columns' )</t>
+  </si>
+  <si>
+    <t>df=pd.Dataframe( { },  columns=[ 'nombre1', 'nombre2', … ] )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Con el argumetno </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> podemos cambiar el nombre</t>
+    </r>
+  </si>
+  <si>
+    <t>a las columnas</t>
+  </si>
+  <si>
+    <t>Se puede agrupar por valores de alguna variable categórica con la funcion</t>
+  </si>
+  <si>
+    <t>groupby()</t>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groupby(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'variable_categorica' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Y luego se pueden hacer operaciones sobre esas agrupaciones</t>
+  </si>
+  <si>
+    <t>df.groupby('variable_categorica').mean()</t>
+  </si>
+  <si>
+    <t>Puede tomar un string, una funcion o lista de operaciones para calcular</t>
+  </si>
+  <si>
+    <t>todos los agregados que indiquemos sobre la estructura de datos</t>
+  </si>
+  <si>
+    <t>Puede ser una funcion de python, de alguna librería o creada por nosotros</t>
+  </si>
+  <si>
+    <r>
+      <t>df.groupby('key')</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.aggregate( [ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'min', np.mean, np.median, max </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">df.groupby('key').aggregate( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'value1':min, 'value2':max </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aquí le estamos pasando un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de operaciones que se aplicará</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a cada valor categórico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aquí estamos pasando un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">diccionario, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>el cual especifica qué operaciones se aplican a qué columnas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FUNCION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aggregate()</t>
+    </r>
+  </si>
+  <si>
+    <t>Se desea aplicar alguna funcion sobre los datos de un df</t>
+  </si>
+  <si>
+    <t>Se desea aplicar cualquier funcion arbitraria sobre un conjunto de datos</t>
+  </si>
+  <si>
+    <t>Input: objeto dataframe, output: pandas</t>
+  </si>
+  <si>
+    <t>Sintaxis  " /= "</t>
+  </si>
+  <si>
+    <t>x /= y   : =   x = x / y</t>
+  </si>
+  <si>
+    <t>Filtra datos que cumplan cierta condición booleana</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FUNCION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">filter( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>funcion</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FUNCION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">transform( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FUNCION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">apply( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>funcion</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2748,16 +3429,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
-  <dimension ref="B2:AW85"/>
+  <dimension ref="B1:BE85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AG21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AR43" sqref="AR43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AV53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BF63" sqref="BF63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="AY1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
@@ -2805,7 +3494,7 @@
       <c r="AN3" s="14"/>
       <c r="AO3" s="15"/>
       <c r="AQ3" s="13" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="AR3" s="14"/>
       <c r="AS3" s="14"/>
@@ -2813,8 +3502,17 @@
       <c r="AU3" s="14"/>
       <c r="AV3" s="14"/>
       <c r="AW3" s="15"/>
-    </row>
-    <row r="4" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AY3" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="15"/>
+    </row>
+    <row r="4" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="H4" s="2"/>
       <c r="J4" s="1"/>
@@ -2826,7 +3524,7 @@
       <c r="AH4" s="1"/>
       <c r="AO4" s="2"/>
     </row>
-    <row r="5" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2848,10 +3546,13 @@
       </c>
       <c r="AO5" s="2"/>
       <c r="AQ5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="2:49" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>1</v>
@@ -2881,10 +3582,13 @@
       </c>
       <c r="AO6" s="2"/>
       <c r="AQ6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="2:49" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="AZ6" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>2</v>
@@ -2917,10 +3621,10 @@
       </c>
       <c r="AO7" s="2"/>
       <c r="AQ7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="2:49" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>3</v>
@@ -2946,10 +3650,13 @@
       </c>
       <c r="AO8" s="2"/>
       <c r="AR8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="2:49" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>4</v>
@@ -2976,10 +3683,13 @@
       </c>
       <c r="AO9" s="2"/>
       <c r="AQ9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="2:49" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3005,10 +3715,13 @@
       </c>
       <c r="AO10" s="2"/>
       <c r="AR10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="2:49" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" t="s">
         <v>6</v>
@@ -3038,10 +3751,13 @@
       </c>
       <c r="AO11" s="2"/>
       <c r="AQ11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="2:49" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>7</v>
@@ -3067,10 +3783,13 @@
       </c>
       <c r="AO12" s="2"/>
       <c r="AQ12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="2:49" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -3093,10 +3812,13 @@
       <c r="AH13" s="1"/>
       <c r="AO13" s="2"/>
       <c r="AQ13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="2:49" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" t="s">
         <v>9</v>
@@ -3120,10 +3842,13 @@
       </c>
       <c r="AO14" s="2"/>
       <c r="AR14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="2:49" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" t="s">
         <v>10</v>
@@ -3149,10 +3874,13 @@
       </c>
       <c r="AO15" s="2"/>
       <c r="AQ15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="2:49" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -3181,10 +3909,13 @@
       </c>
       <c r="AO16" s="2"/>
       <c r="AR16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" t="s">
         <v>12</v>
@@ -3210,10 +3941,10 @@
       <c r="AH17" s="1"/>
       <c r="AO17" s="2"/>
       <c r="AQ17" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3238,10 +3969,13 @@
       </c>
       <c r="AO18" s="2"/>
       <c r="AR18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="2:46" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>14</v>
@@ -3271,10 +4005,13 @@
       </c>
       <c r="AO19" s="2"/>
       <c r="AR19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="2:46" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>15</v>
@@ -3300,8 +4037,11 @@
         <v>235</v>
       </c>
       <c r="AO20" s="2"/>
-    </row>
-    <row r="21" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="BA20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" t="s">
         <v>16</v>
@@ -3322,10 +4062,10 @@
       <c r="AH21" s="1"/>
       <c r="AO21" s="2"/>
       <c r="AQ21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>17</v>
@@ -3351,10 +4091,13 @@
       </c>
       <c r="AO22" s="2"/>
       <c r="AR22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="2:46" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>18</v>
@@ -3377,10 +4120,13 @@
       </c>
       <c r="AO23" s="2"/>
       <c r="AS23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="2:46" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -3406,10 +4152,10 @@
       </c>
       <c r="AO24" s="2"/>
       <c r="AT24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="2:46" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>51</v>
@@ -3436,10 +4182,13 @@
       <c r="AH25" s="1"/>
       <c r="AO25" s="2"/>
       <c r="AT25" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3468,10 +4217,13 @@
       </c>
       <c r="AO26" s="2"/>
       <c r="AT26" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="2:53" x14ac:dyDescent="0.25">
       <c r="J27" s="1"/>
       <c r="K27" t="s">
         <v>43</v>
@@ -3492,10 +4244,13 @@
       </c>
       <c r="AO27" s="2"/>
       <c r="AT27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="28" spans="2:46" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="2:53" x14ac:dyDescent="0.25">
       <c r="J28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3512,10 +4267,13 @@
       <c r="AH28" s="1"/>
       <c r="AO28" s="2"/>
       <c r="AT28" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="2:53" x14ac:dyDescent="0.25">
       <c r="J29" s="1"/>
       <c r="K29" t="s">
         <v>46</v>
@@ -3537,7 +4295,7 @@
       </c>
       <c r="AO29" s="2"/>
     </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:53" x14ac:dyDescent="0.25">
       <c r="J30" s="1"/>
       <c r="K30" t="s">
         <v>47</v>
@@ -3559,10 +4317,13 @@
       </c>
       <c r="AO30" s="2"/>
       <c r="AQ30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="2:53" x14ac:dyDescent="0.25">
       <c r="J31" s="1"/>
       <c r="L31" t="s">
         <v>48</v>
@@ -3581,10 +4342,13 @@
       <c r="AH31" s="1"/>
       <c r="AO31" s="2"/>
       <c r="AR31" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="2:53" x14ac:dyDescent="0.25">
       <c r="J32" s="1"/>
       <c r="L32" t="s">
         <v>49</v>
@@ -3605,10 +4369,13 @@
       </c>
       <c r="AO32" s="2"/>
       <c r="AR32" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="33" spans="10:45" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J33" s="1"/>
       <c r="K33" t="s">
         <v>50</v>
@@ -3632,10 +4399,10 @@
       </c>
       <c r="AO33" s="2"/>
       <c r="AS33" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="34" spans="10:45" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J34" s="1" t="s">
         <v>52</v>
       </c>
@@ -3657,10 +4424,13 @@
       <c r="AK34" s="12"/>
       <c r="AO34" s="2"/>
       <c r="AR34" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="35" spans="10:45" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J35" s="1"/>
       <c r="K35" t="s">
         <v>53</v>
@@ -3685,10 +4455,13 @@
       </c>
       <c r="AO35" s="2"/>
       <c r="AS35" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="36" spans="10:45" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J36" s="1"/>
       <c r="K36" t="s">
         <v>54</v>
@@ -3708,10 +4481,10 @@
       <c r="AK36" s="12"/>
       <c r="AO36" s="2"/>
       <c r="AR36" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="37" spans="10:45" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J37" s="1"/>
       <c r="K37" t="s">
         <v>55</v>
@@ -3735,10 +4508,13 @@
       </c>
       <c r="AO37" s="2"/>
       <c r="AS37" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="38" spans="10:45" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J38" s="1" t="s">
         <v>56</v>
       </c>
@@ -3753,10 +4529,13 @@
       <c r="AH38" s="1"/>
       <c r="AO38" s="2"/>
       <c r="AQ38" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="39" spans="10:45" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J39" s="1"/>
       <c r="K39" t="s">
         <v>57</v>
@@ -3776,10 +4555,13 @@
       </c>
       <c r="AO39" s="2"/>
       <c r="AR39" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="40" spans="10:45" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J40" s="1"/>
       <c r="K40" t="s">
         <v>58</v>
@@ -3800,7 +4582,7 @@
       <c r="AH40" s="1"/>
       <c r="AO40" s="2"/>
     </row>
-    <row r="41" spans="10:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J41" s="1"/>
       <c r="K41" t="s">
         <v>59</v>
@@ -3824,10 +4606,13 @@
       </c>
       <c r="AO41" s="2"/>
       <c r="AQ41" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="42" spans="10:45" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J42" s="1"/>
       <c r="L42" t="s">
         <v>60</v>
@@ -3847,8 +4632,11 @@
         <v>248</v>
       </c>
       <c r="AO42" s="2"/>
-    </row>
-    <row r="43" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="AY42" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="43" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J43" s="1"/>
       <c r="L43" t="s">
         <v>62</v>
@@ -3866,8 +4654,11 @@
         <v>249</v>
       </c>
       <c r="AO43" s="2"/>
-    </row>
-    <row r="44" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="AZ43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J44" s="1"/>
       <c r="L44" t="s">
         <v>61</v>
@@ -3888,7 +4679,7 @@
       </c>
       <c r="AO44" s="2"/>
     </row>
-    <row r="45" spans="10:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J45" s="3"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -3911,8 +4702,11 @@
         <v>251</v>
       </c>
       <c r="AO45" s="2"/>
-    </row>
-    <row r="46" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="AY45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="10:53" x14ac:dyDescent="0.25">
       <c r="R46" s="1"/>
       <c r="S46" t="s">
         <v>104</v>
@@ -3931,8 +4725,11 @@
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
       <c r="AO46" s="5"/>
-    </row>
-    <row r="47" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="AZ46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="10:53" x14ac:dyDescent="0.25">
       <c r="R47" s="1"/>
       <c r="T47" t="s">
         <v>105</v>
@@ -3941,7 +4738,7 @@
       <c r="Z47" s="1"/>
       <c r="AF47" s="2"/>
     </row>
-    <row r="48" spans="10:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:53" x14ac:dyDescent="0.25">
       <c r="R48" s="1" t="s">
         <v>106</v>
       </c>
@@ -3954,8 +4751,11 @@
         <v>187</v>
       </c>
       <c r="AF48" s="2"/>
-    </row>
-    <row r="49" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AY48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R49" s="1" t="s">
         <v>117</v>
       </c>
@@ -3965,8 +4765,11 @@
         <v>184</v>
       </c>
       <c r="AF49" s="2"/>
-    </row>
-    <row r="50" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AZ49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R50" s="1"/>
       <c r="S50" t="s">
         <v>109</v>
@@ -3977,8 +4780,11 @@
         <v>185</v>
       </c>
       <c r="AF50" s="2"/>
-    </row>
-    <row r="51" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AZ50" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R51" s="1"/>
       <c r="T51" t="s">
         <v>110</v>
@@ -3987,7 +4793,7 @@
       <c r="Z51" s="1"/>
       <c r="AF51" s="2"/>
     </row>
-    <row r="52" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R52" s="1"/>
       <c r="S52" t="s">
         <v>111</v>
@@ -3998,8 +4804,11 @@
         <v>188</v>
       </c>
       <c r="AF52" s="2"/>
-    </row>
-    <row r="53" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AZ52" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R53" s="1"/>
       <c r="T53" t="s">
         <v>112</v>
@@ -4011,7 +4820,7 @@
       </c>
       <c r="AF53" s="2"/>
     </row>
-    <row r="54" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R54" s="1"/>
       <c r="S54" t="s">
         <v>113</v>
@@ -4022,8 +4831,11 @@
         <v>190</v>
       </c>
       <c r="AF54" s="2"/>
-    </row>
-    <row r="55" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AY54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R55" s="1"/>
       <c r="T55" t="s">
         <v>116</v>
@@ -4034,8 +4846,11 @@
         <v>191</v>
       </c>
       <c r="AF55" s="2"/>
-    </row>
-    <row r="56" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AZ55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R56" s="1"/>
       <c r="S56" t="s">
         <v>114</v>
@@ -4047,7 +4862,7 @@
       </c>
       <c r="AF56" s="2"/>
     </row>
-    <row r="57" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R57" s="1"/>
       <c r="T57" t="s">
         <v>115</v>
@@ -4058,16 +4873,22 @@
         <v>195</v>
       </c>
       <c r="AF57" s="2"/>
-    </row>
-    <row r="58" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AY57" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R58" s="7" t="s">
         <v>119</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Z58" s="1"/>
       <c r="AF58" s="2"/>
-    </row>
-    <row r="59" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AZ58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R59" s="1" t="s">
         <v>118</v>
       </c>
@@ -4078,7 +4899,7 @@
       </c>
       <c r="AF59" s="2"/>
     </row>
-    <row r="60" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R60" s="1"/>
       <c r="X60" s="2"/>
       <c r="Z60" s="1"/>
@@ -4086,16 +4907,22 @@
         <v>193</v>
       </c>
       <c r="AF60" s="2"/>
-    </row>
-    <row r="61" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AY60" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="61" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R61" s="1" t="s">
         <v>120</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Z61" s="1"/>
       <c r="AF61" s="2"/>
-    </row>
-    <row r="62" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AZ61" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R62" s="1"/>
       <c r="X62" s="2"/>
       <c r="Z62" s="1" t="s">
@@ -4103,7 +4930,7 @@
       </c>
       <c r="AF62" s="2"/>
     </row>
-    <row r="63" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R63" s="1"/>
       <c r="S63" t="s">
         <v>121</v>
@@ -4114,8 +4941,11 @@
         <v>197</v>
       </c>
       <c r="AF63" s="2"/>
-    </row>
-    <row r="64" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AY63" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="64" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R64" s="1"/>
       <c r="T64" t="s">
         <v>123</v>
@@ -4126,8 +4956,11 @@
         <v>200</v>
       </c>
       <c r="AF64" s="2"/>
-    </row>
-    <row r="65" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AZ64" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R65" s="1"/>
       <c r="T65" t="s">
         <v>122</v>
@@ -4139,7 +4972,7 @@
       </c>
       <c r="AF65" s="2"/>
     </row>
-    <row r="66" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R66" s="1"/>
       <c r="S66" t="s">
         <v>124</v>
@@ -4150,8 +4983,11 @@
         <v>199</v>
       </c>
       <c r="AF66" s="2"/>
-    </row>
-    <row r="67" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AY66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R67" s="1"/>
       <c r="T67" t="s">
         <v>125</v>
@@ -4159,8 +4995,14 @@
       <c r="X67" s="2"/>
       <c r="Z67" s="1"/>
       <c r="AF67" s="2"/>
-    </row>
-    <row r="68" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AY67" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ67" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R68" s="1"/>
       <c r="X68" s="2"/>
       <c r="Z68" s="1"/>
@@ -4168,8 +5010,11 @@
         <v>201</v>
       </c>
       <c r="AF68" s="2"/>
-    </row>
-    <row r="69" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="AZ68" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R69" s="1" t="s">
         <v>126</v>
       </c>
@@ -4180,7 +5025,7 @@
       </c>
       <c r="AF69" s="2"/>
     </row>
-    <row r="70" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R70" s="1"/>
       <c r="S70" s="6" t="s">
         <v>127</v>
@@ -4189,7 +5034,7 @@
       <c r="Z70" s="1"/>
       <c r="AF70" s="2"/>
     </row>
-    <row r="71" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R71" s="1"/>
       <c r="S71" t="s">
         <v>128</v>
@@ -4201,7 +5046,7 @@
       </c>
       <c r="AF71" s="2"/>
     </row>
-    <row r="72" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R72" s="1"/>
       <c r="X72" s="2"/>
       <c r="Z72" s="1"/>
@@ -4210,7 +5055,7 @@
       </c>
       <c r="AF72" s="2"/>
     </row>
-    <row r="73" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R73" s="1"/>
       <c r="S73" t="s">
         <v>129</v>
@@ -4219,7 +5064,7 @@
       <c r="Z73" s="1"/>
       <c r="AF73" s="2"/>
     </row>
-    <row r="74" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R74" s="1"/>
       <c r="T74" t="s">
         <v>130</v>
@@ -4230,7 +5075,7 @@
       </c>
       <c r="AF74" s="2"/>
     </row>
-    <row r="75" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R75" s="1"/>
       <c r="S75" t="s">
         <v>131</v>
@@ -4242,7 +5087,7 @@
       </c>
       <c r="AF75" s="2"/>
     </row>
-    <row r="76" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R76" s="1"/>
       <c r="T76" t="s">
         <v>132</v>
@@ -4254,7 +5099,7 @@
       </c>
       <c r="AF76" s="2"/>
     </row>
-    <row r="77" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R77" s="1"/>
       <c r="S77" t="s">
         <v>133</v>
@@ -4266,7 +5111,7 @@
       </c>
       <c r="AF77" s="2"/>
     </row>
-    <row r="78" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R78" s="1"/>
       <c r="S78" t="s">
         <v>134</v>
@@ -4278,7 +5123,7 @@
       </c>
       <c r="AF78" s="2"/>
     </row>
-    <row r="79" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R79" s="1"/>
       <c r="T79" t="s">
         <v>136</v>
@@ -4290,7 +5135,7 @@
       </c>
       <c r="AF79" s="2"/>
     </row>
-    <row r="80" spans="18:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="18:52" x14ac:dyDescent="0.25">
       <c r="R80" s="1"/>
       <c r="T80" t="s">
         <v>135</v>
@@ -4363,7 +5208,8 @@
       <c r="AF85" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AY3:BE3"/>
     <mergeCell ref="AQ3:AW3"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
